--- a/Fahrzeug_und_Bedarfsplan.xlsx
+++ b/Fahrzeug_und_Bedarfsplan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="64">
   <si>
     <t>Fahrzeugplanung</t>
   </si>
@@ -188,6 +188,24 @@
   </si>
   <si>
     <t>WLF-Pers. erhält GW-Dekon Lehrgang</t>
+  </si>
+  <si>
+    <t>GruKw</t>
+  </si>
+  <si>
+    <t>leBefKw</t>
+  </si>
+  <si>
+    <t>FüKw</t>
+  </si>
+  <si>
+    <t>GefKw</t>
+  </si>
+  <si>
+    <t>KdoW-LNA</t>
+  </si>
+  <si>
+    <t>KdoW-OrGl</t>
   </si>
 </sst>
 </file>
@@ -622,7 +640,7 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1248,13 +1266,13 @@
         <v>17</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>35</v>
@@ -1266,12 +1284,14 @@
         <v>35</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -1319,12 +1339,14 @@
         <v>2</v>
       </c>
       <c r="O13" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>1</v>
+      </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
@@ -1483,20 +1505,48 @@
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
@@ -1508,19 +1558,45 @@
     <row r="20" spans="1:23">
       <c r="A20" s="12"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="C20" s="4">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4">
+        <v>9</v>
+      </c>
+      <c r="E20" s="4">
+        <v>9</v>
+      </c>
+      <c r="F20" s="4">
+        <v>9</v>
+      </c>
+      <c r="G20" s="4">
+        <v>9</v>
+      </c>
+      <c r="H20" s="4">
+        <v>9</v>
+      </c>
+      <c r="I20" s="4">
+        <v>9</v>
+      </c>
+      <c r="J20" s="4">
+        <v>9</v>
+      </c>
+      <c r="K20" s="4">
+        <v>9</v>
+      </c>
+      <c r="L20" s="4">
+        <v>3</v>
+      </c>
+      <c r="M20" s="4">
+        <v>3</v>
+      </c>
+      <c r="N20" s="4">
+        <v>3</v>
+      </c>
+      <c r="O20" s="4">
+        <v>3</v>
+      </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -1879,7 +1955,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4">
         <f>SUM(C13:R13)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
@@ -1986,8 +2062,12 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
+      <c r="J37" s="4">
+        <v>9</v>
+      </c>
+      <c r="K37" s="4">
+        <v>3</v>
+      </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -1996,7 +2076,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4">
         <f>SUM(C20:R20)</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>

--- a/Fahrzeug_und_Bedarfsplan.xlsx
+++ b/Fahrzeug_und_Bedarfsplan.xlsx
@@ -629,7 +629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -640,7 +640,7 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1597,7 +1597,9 @@
       <c r="O20" s="4">
         <v>3</v>
       </c>
-      <c r="P20" s="4"/>
+      <c r="P20" s="4">
+        <v>2</v>
+      </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
@@ -2076,7 +2078,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4">
         <f>SUM(C20:R20)</f>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>

--- a/Fahrzeug_und_Bedarfsplan.xlsx
+++ b/Fahrzeug_und_Bedarfsplan.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuerwehrgebäude" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171026"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="91">
   <si>
     <t>Fahrzeugplanung</t>
   </si>
@@ -49,63 +50,69 @@
     <t>GW - A</t>
   </si>
   <si>
+    <t>GW-Mes</t>
+  </si>
+  <si>
     <t>SW</t>
   </si>
   <si>
     <t>DLAK</t>
   </si>
   <si>
+    <t>ELW</t>
+  </si>
+  <si>
+    <t>ELW 2</t>
+  </si>
+  <si>
     <t>WLF</t>
   </si>
   <si>
+    <t>RTW</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Öl</t>
+  </si>
+  <si>
+    <t>Hauptwache Nebenstelle</t>
+  </si>
+  <si>
+    <t>GW - H</t>
+  </si>
+  <si>
+    <t>GW - Öl</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>Rüst</t>
+  </si>
+  <si>
+    <t>Löschgruppe</t>
+  </si>
+  <si>
+    <t>Dekon-Wache</t>
+  </si>
+  <si>
     <t>MTW</t>
   </si>
   <si>
-    <t>ELW</t>
-  </si>
-  <si>
-    <t>ELW 2</t>
-  </si>
-  <si>
-    <t>RTW</t>
-  </si>
-  <si>
-    <t>Hauptwache Nebenstelle</t>
-  </si>
-  <si>
-    <t>GW - H</t>
-  </si>
-  <si>
-    <t>RW</t>
-  </si>
-  <si>
-    <t>Rüst</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Öl</t>
-  </si>
-  <si>
-    <t>Löschgruppe</t>
-  </si>
-  <si>
-    <t>Dekon-Wache</t>
-  </si>
-  <si>
     <t>GW - G</t>
   </si>
   <si>
+    <t>GW-G</t>
+  </si>
+  <si>
     <t>GW - Dekon</t>
   </si>
   <si>
     <t>GW - Mess</t>
   </si>
   <si>
-    <t>GW - Öl</t>
-  </si>
-  <si>
     <t>ÖL</t>
   </si>
   <si>
@@ -124,6 +131,12 @@
     <t>NEF</t>
   </si>
   <si>
+    <t>KdoW-LNA</t>
+  </si>
+  <si>
+    <t>KdoW-OrGl</t>
+  </si>
+  <si>
     <t>Helipad</t>
   </si>
   <si>
@@ -142,6 +155,18 @@
     <t>BePo</t>
   </si>
   <si>
+    <t>GruKw</t>
+  </si>
+  <si>
+    <t>leBefKw</t>
+  </si>
+  <si>
+    <t>FüKw</t>
+  </si>
+  <si>
+    <t>GefKw</t>
+  </si>
+  <si>
     <t>THW</t>
   </si>
   <si>
@@ -157,9 +182,6 @@
     <t>GW-Mess</t>
   </si>
   <si>
-    <t>GW-G</t>
-  </si>
-  <si>
     <t>GW-Dekon</t>
   </si>
   <si>
@@ -169,6 +191,12 @@
     <t>Notarzt</t>
   </si>
   <si>
+    <t>LNA</t>
+  </si>
+  <si>
+    <t>OrgL</t>
+  </si>
+  <si>
     <t>ZF leBefKw</t>
   </si>
   <si>
@@ -190,28 +218,82 @@
     <t>WLF-Pers. erhält GW-Dekon Lehrgang</t>
   </si>
   <si>
-    <t>GruKw</t>
-  </si>
-  <si>
-    <t>leBefKw</t>
-  </si>
-  <si>
-    <t>FüKw</t>
-  </si>
-  <si>
-    <t>GefKw</t>
-  </si>
-  <si>
-    <t>KdoW-LNA</t>
-  </si>
-  <si>
-    <t>KdoW-OrGl</t>
+    <t>Feuerwachen</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Ort</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>Fahrzeuge</t>
+  </si>
+  <si>
+    <t>Info / Notiz</t>
+  </si>
+  <si>
+    <t>Spenge</t>
+  </si>
+  <si>
+    <t>Spenge-Mitte (Altbau)</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>Spenge-Mitte (Neubau)</t>
+  </si>
+  <si>
+    <t>Bünde</t>
+  </si>
+  <si>
+    <t>Hauptwache Bünde</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>Hauptwache Bünde (Nebengebäude)</t>
+  </si>
+  <si>
+    <t>HWN</t>
+  </si>
+  <si>
+    <t>Löhne</t>
+  </si>
+  <si>
+    <t>Porta Westfalica</t>
+  </si>
+  <si>
+    <t>Barkenhausen</t>
+  </si>
+  <si>
+    <t>Bad Oeynhausen</t>
+  </si>
+  <si>
+    <t>Oberbecksen</t>
+  </si>
+  <si>
+    <t>Minden</t>
+  </si>
+  <si>
+    <t>Hauptwache Minden</t>
+  </si>
+  <si>
+    <t>Hauptwache Minden (Nebengebäude)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -282,16 +364,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -304,6 +383,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -320,7 +402,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,21 +715,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="18" width="11.7109375" customWidth="1"/>
@@ -758,29 +844,31 @@
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="J3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>15</v>
@@ -799,8 +887,12 @@
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
+      <c r="U3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23">
@@ -819,12 +911,14 @@
         <v>9</v>
       </c>
       <c r="G4" s="4">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
       <c r="J4" s="4">
         <v>3</v>
       </c>
@@ -832,19 +926,19 @@
         <v>3</v>
       </c>
       <c r="L4" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M4" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N4" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O4" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P4" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="4">
         <v>2</v>
@@ -861,7 +955,7 @@
     <row r="5" spans="1:23">
       <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -870,54 +964,54 @@
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="16"/>
       <c r="O5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="W5" s="4"/>
     </row>
@@ -937,31 +1031,31 @@
         <v>9</v>
       </c>
       <c r="G6" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H6" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I6" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J6" s="4">
         <v>3</v>
       </c>
       <c r="K6" s="4">
-        <v>9</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8">
-        <v>3</v>
-      </c>
-      <c r="N6" s="4">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L6" s="4">
+        <v>9</v>
+      </c>
+      <c r="M6" s="7">
+        <v>9</v>
+      </c>
+      <c r="N6" s="16"/>
       <c r="O6" s="4">
         <v>3</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="7">
         <v>3</v>
       </c>
       <c r="Q6" s="4">
@@ -979,7 +1073,7 @@
     <row r="7" spans="1:23">
       <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
@@ -997,7 +1091,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>9</v>
@@ -1009,17 +1103,17 @@
         <v>9</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="N7" s="6"/>
       <c r="O7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>17</v>
@@ -1029,13 +1123,13 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="W7" s="4"/>
     </row>
@@ -1075,7 +1169,7 @@
       <c r="M8" s="4">
         <v>3</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="6"/>
       <c r="O8" s="4">
         <v>3</v>
       </c>
@@ -1097,7 +1191,7 @@
     <row r="9" spans="1:23">
       <c r="A9" s="12"/>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1109,54 +1203,54 @@
         <v>9</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1190,13 +1284,13 @@
         <v>3</v>
       </c>
       <c r="L10" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M10" s="4">
         <v>6</v>
       </c>
       <c r="N10" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O10" s="4">
         <v>3</v>
@@ -1242,10 +1336,10 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>17</v>
@@ -1266,31 +1360,31 @@
         <v>17</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
@@ -1357,10 +1451,10 @@
     <row r="14" spans="1:23">
       <c r="A14" s="12"/>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1436,19 +1530,19 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1503,49 +1597,49 @@
     <row r="19" spans="1:23">
       <c r="A19" s="12"/>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -1634,10 +1728,10 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1688,7 +1782,7 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1716,51 +1810,55 @@
     <row r="27" spans="1:23">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="I27" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="S27" s="3"/>
       <c r="T27" s="13" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
@@ -1778,14 +1876,12 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H28" s="4">
         <v>3</v>
       </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -1796,32 +1892,24 @@
         <f>SUM(C4:R4)</f>
         <v>82</v>
       </c>
-      <c r="S28" s="9"/>
-      <c r="T28" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
+      <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="12"/>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -1830,7 +1918,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4">
         <f>SUM(C6:R6)</f>
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -1841,7 +1929,7 @@
     <row r="30" spans="1:23">
       <c r="A30" s="12"/>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1852,8 +1940,6 @@
         <v>3</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -1873,13 +1959,13 @@
     <row r="31" spans="1:23">
       <c r="A31" s="12"/>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E31" s="4">
         <v>18</v>
@@ -1890,8 +1976,6 @@
         <v>6</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -1903,10 +1987,12 @@
         <v>78</v>
       </c>
       <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
+      <c r="T31" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
     </row>
     <row r="32" spans="1:23">
       <c r="C32" s="4"/>
@@ -1916,8 +2002,6 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -1933,10 +2017,10 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1945,10 +2029,14 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4">
-        <v>10</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -1968,7 +2056,7 @@
     <row r="34" spans="1:23">
       <c r="A34" s="12"/>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1979,8 +2067,6 @@
       <c r="I34" s="4">
         <v>2</v>
       </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -2005,8 +2091,6 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -2022,10 +2106,10 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2034,8 +2118,6 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -2055,7 +2137,7 @@
     <row r="37" spans="1:23">
       <c r="A37" s="12"/>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2064,14 +2146,12 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="4">
-        <v>9</v>
-      </c>
-      <c r="K37" s="4">
-        <v>3</v>
-      </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
+      <c r="L37" s="4">
+        <v>9</v>
+      </c>
+      <c r="M37" s="4">
+        <v>3</v>
+      </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -2110,11 +2190,11 @@
       <c r="W38" s="4"/>
     </row>
     <row r="39" spans="1:23" ht="27">
-      <c r="A39" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>43</v>
+      <c r="A39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2154,9 +2234,342 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A26:W26"/>
-    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="T31:W31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15">
+        <v>3</v>
+      </c>
+      <c r="H3" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3" s="15">
+        <v>5</v>
+      </c>
+      <c r="J3" s="15">
+        <v>6</v>
+      </c>
+      <c r="K3" s="15">
+        <v>7</v>
+      </c>
+      <c r="L3" s="15">
+        <v>8</v>
+      </c>
+      <c r="M3" s="15">
+        <v>9</v>
+      </c>
+      <c r="N3" s="15">
+        <v>10</v>
+      </c>
+      <c r="O3" s="15">
+        <v>11</v>
+      </c>
+      <c r="P3" s="15">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>13</v>
+      </c>
+      <c r="R3" s="15">
+        <v>14</v>
+      </c>
+      <c r="S3" s="15">
+        <v>15</v>
+      </c>
+      <c r="T3" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="V4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E4:T4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Fahrzeug_und_Bedarfsplan.xlsx
+++ b/Fahrzeug_und_Bedarfsplan.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Anforderungen" sheetId="1" r:id="rId1"/>
     <sheet name="Feuerwehrgebäude" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171026"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="93">
   <si>
     <t>Fahrzeugplanung</t>
   </si>
@@ -50,7 +50,7 @@
     <t>GW - A</t>
   </si>
   <si>
-    <t>GW-Mes</t>
+    <t>GW-Mess</t>
   </si>
   <si>
     <t>SW</t>
@@ -83,105 +83,105 @@
     <t>GW - H</t>
   </si>
   <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>Rüst</t>
+  </si>
+  <si>
+    <t>Löschgruppe</t>
+  </si>
+  <si>
+    <t>TLF</t>
+  </si>
+  <si>
+    <t>MTW</t>
+  </si>
+  <si>
+    <t>Dekon-Wache</t>
+  </si>
+  <si>
+    <t>GW - G</t>
+  </si>
+  <si>
+    <t>GW - Dekon</t>
+  </si>
+  <si>
+    <t>GW - Mess</t>
+  </si>
+  <si>
     <t>GW - Öl</t>
   </si>
   <si>
-    <t>RW</t>
-  </si>
-  <si>
-    <t>Rüst</t>
-  </si>
-  <si>
-    <t>Löschgruppe</t>
-  </si>
-  <si>
-    <t>Dekon-Wache</t>
-  </si>
-  <si>
-    <t>MTW</t>
-  </si>
-  <si>
-    <t>GW - G</t>
+    <t>ÖL</t>
+  </si>
+  <si>
+    <t>Dekon</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>Ortsverband</t>
+  </si>
+  <si>
+    <t>KTW</t>
+  </si>
+  <si>
+    <t>NEF</t>
+  </si>
+  <si>
+    <t>KdoW-LNA</t>
+  </si>
+  <si>
+    <t>KdoW-OrGl</t>
+  </si>
+  <si>
+    <t>Helipad</t>
+  </si>
+  <si>
+    <t>Heli</t>
+  </si>
+  <si>
+    <t>Pol</t>
+  </si>
+  <si>
+    <t>Polizeiwache</t>
+  </si>
+  <si>
+    <t>FuStW</t>
+  </si>
+  <si>
+    <t>BePo</t>
+  </si>
+  <si>
+    <t>GruKw</t>
+  </si>
+  <si>
+    <t>leBefKw</t>
+  </si>
+  <si>
+    <t>FüKw</t>
+  </si>
+  <si>
+    <t>GefKw</t>
+  </si>
+  <si>
+    <t>THW</t>
+  </si>
+  <si>
+    <t>THW - OV</t>
+  </si>
+  <si>
+    <t>Lehrgangsplan</t>
+  </si>
+  <si>
+    <t>Lehrgang</t>
   </si>
   <si>
     <t>GW-G</t>
   </si>
   <si>
-    <t>GW - Dekon</t>
-  </si>
-  <si>
-    <t>GW - Mess</t>
-  </si>
-  <si>
-    <t>ÖL</t>
-  </si>
-  <si>
-    <t>Dekon</t>
-  </si>
-  <si>
-    <t>RD</t>
-  </si>
-  <si>
-    <t>Ortsverband</t>
-  </si>
-  <si>
-    <t>KTW</t>
-  </si>
-  <si>
-    <t>NEF</t>
-  </si>
-  <si>
-    <t>KdoW-LNA</t>
-  </si>
-  <si>
-    <t>KdoW-OrGl</t>
-  </si>
-  <si>
-    <t>Helipad</t>
-  </si>
-  <si>
-    <t>Heli</t>
-  </si>
-  <si>
-    <t>Pol</t>
-  </si>
-  <si>
-    <t>Polizeiwache</t>
-  </si>
-  <si>
-    <t>FuStW</t>
-  </si>
-  <si>
-    <t>BePo</t>
-  </si>
-  <si>
-    <t>GruKw</t>
-  </si>
-  <si>
-    <t>leBefKw</t>
-  </si>
-  <si>
-    <t>FüKw</t>
-  </si>
-  <si>
-    <t>GefKw</t>
-  </si>
-  <si>
-    <t>THW</t>
-  </si>
-  <si>
-    <t>THW - OV</t>
-  </si>
-  <si>
-    <t>Lehrgangsplan</t>
-  </si>
-  <si>
-    <t>Lehrgang</t>
-  </si>
-  <si>
-    <t>GW-Mess</t>
-  </si>
-  <si>
     <t>GW-Dekon</t>
   </si>
   <si>
@@ -236,21 +236,18 @@
     <t>Fahrzeuge</t>
   </si>
   <si>
-    <t>Info / Notiz</t>
-  </si>
-  <si>
     <t>Spenge</t>
   </si>
   <si>
     <t>Spenge-Mitte (Altbau)</t>
   </si>
   <si>
+    <t>Spenge-Mitte (Neubau)</t>
+  </si>
+  <si>
     <t>LG</t>
   </si>
   <si>
-    <t>Spenge-Mitte (Neubau)</t>
-  </si>
-  <si>
     <t>Bünde</t>
   </si>
   <si>
@@ -288,6 +285,15 @@
   </si>
   <si>
     <t>Hauptwache Minden (Nebengebäude)</t>
+  </si>
+  <si>
+    <t>Hauptwache Minden (CBRN)</t>
+  </si>
+  <si>
+    <t>Hiddenhausen</t>
+  </si>
+  <si>
+    <t>LG Eilshausen</t>
   </si>
 </sst>
 </file>
@@ -311,7 +317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +327,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEBF1DD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -375,9 +387,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -385,7 +394,20 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -402,10 +424,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,7 +487,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,7 +539,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -725,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -737,37 +755,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="1">
         <v>1</v>
       </c>
@@ -831,7 +849,7 @@
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -852,7 +870,7 @@
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -896,7 +914,7 @@
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="12"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="2"/>
       <c r="C4" s="4">
         <v>9</v>
@@ -913,7 +931,7 @@
       <c r="G4" s="4">
         <v>3</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>3</v>
       </c>
       <c r="I4" s="4">
@@ -953,7 +971,7 @@
       <c r="W4" s="4"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="12"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
@@ -964,16 +982,16 @@
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>12</v>
@@ -982,20 +1000,16 @@
         <v>13</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="4" t="s">
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>16</v>
@@ -1005,7 +1019,7 @@
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U5" s="4" t="s">
         <v>18</v>
@@ -1016,7 +1030,7 @@
       <c r="W5" s="4"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="12"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="2"/>
       <c r="C6" s="4">
         <v>9</v>
@@ -1031,7 +1045,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H6" s="4">
         <v>3</v>
@@ -1043,19 +1057,15 @@
         <v>3</v>
       </c>
       <c r="K6" s="4">
-        <v>3</v>
-      </c>
-      <c r="L6" s="4">
-        <v>9</v>
-      </c>
-      <c r="M6" s="7">
-        <v>9</v>
-      </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="4">
-        <v>3</v>
-      </c>
-      <c r="P6" s="7">
+        <v>9</v>
+      </c>
+      <c r="L6" s="6">
+        <v>9</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="6">
         <v>3</v>
       </c>
       <c r="Q6" s="4">
@@ -1071,12 +1081,12 @@
       <c r="W6" s="4"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="12"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
@@ -1108,7 +1118,9 @@
       <c r="M7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="6"/>
+      <c r="N7" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="O7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1122,9 +1134,7 @@
         <v>17</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="T7" s="4"/>
       <c r="U7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1134,10 +1144,10 @@
       <c r="W7" s="4"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="12"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D8" s="4">
         <v>9</v>
@@ -1169,7 +1179,9 @@
       <c r="M8" s="4">
         <v>3</v>
       </c>
-      <c r="N8" s="6"/>
+      <c r="N8" s="10">
+        <v>9</v>
+      </c>
       <c r="O8" s="4">
         <v>3</v>
       </c>
@@ -1189,21 +1201,21 @@
       <c r="W8" s="4"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="12"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>14</v>
@@ -1221,25 +1233,25 @@
         <v>28</v>
       </c>
       <c r="L9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -1254,13 +1266,13 @@
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="12"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4">
         <v>9</v>
       </c>
       <c r="D10" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E10" s="4">
         <v>9</v>
@@ -1335,7 +1347,7 @@
       <c r="W11" s="4"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1394,7 +1406,7 @@
       <c r="W12" s="4"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="12"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4">
         <v>2</v>
@@ -1449,7 +1461,7 @@
       <c r="W13" s="4"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="12"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
@@ -1478,7 +1490,7 @@
       <c r="W14" s="4"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="12"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4">
         <v>1</v>
@@ -1529,7 +1541,7 @@
       <c r="W16" s="4"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1564,7 +1576,7 @@
       <c r="W17" s="4"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="12"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4">
         <v>2</v>
@@ -1595,7 +1607,7 @@
       <c r="W18" s="4"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="12"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
@@ -1650,7 +1662,7 @@
       <c r="W19" s="4"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="12"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4">
         <v>9</v>
@@ -1727,7 +1739,7 @@
       <c r="W21" s="4"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1756,7 +1768,7 @@
       <c r="W22" s="4"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="12"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1781,31 +1793,31 @@
       <c r="W23" s="4"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="3"/>
@@ -1813,10 +1825,10 @@
         <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>55</v>
@@ -1857,15 +1869,15 @@
         <v>64</v>
       </c>
       <c r="S27" s="3"/>
-      <c r="T27" s="13" t="s">
+      <c r="T27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B28" t="s">
@@ -1892,10 +1904,10 @@
         <f>SUM(C4:R4)</f>
         <v>82</v>
       </c>
-      <c r="S28" s="8"/>
+      <c r="S28" s="7"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="12"/>
+      <c r="A29" s="18"/>
       <c r="B29" t="s">
         <v>20</v>
       </c>
@@ -1927,9 +1939,9 @@
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="12"/>
+      <c r="A30" s="18"/>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1948,7 +1960,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4">
         <f>SUM(C8:R8)</f>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -1957,9 +1969,9 @@
       <c r="W30" s="4"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="12"/>
+      <c r="A31" s="18"/>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" s="4">
         <v>9</v>
@@ -1984,15 +1996,15 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4">
         <f>SUM(C10:R10)</f>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="S31" s="4"/>
-      <c r="T31" s="17" t="s">
+      <c r="T31" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
     </row>
     <row r="32" spans="1:23">
       <c r="C32" s="4"/>
@@ -2016,7 +2028,7 @@
       <c r="W32" s="4"/>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
@@ -2054,7 +2066,7 @@
       <c r="W33" s="4"/>
     </row>
     <row r="34" spans="1:23">
-      <c r="A34" s="12"/>
+      <c r="A34" s="18"/>
       <c r="B34" t="s">
         <v>40</v>
       </c>
@@ -2105,7 +2117,7 @@
       <c r="W35" s="4"/>
     </row>
     <row r="36" spans="1:23">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
@@ -2135,7 +2147,7 @@
       <c r="W36" s="4"/>
     </row>
     <row r="37" spans="1:23">
-      <c r="A37" s="12"/>
+      <c r="A37" s="18"/>
       <c r="B37" t="s">
         <v>45</v>
       </c>
@@ -2190,7 +2202,7 @@
       <c r="W38" s="4"/>
     </row>
     <row r="39" spans="1:23" ht="27">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -2243,74 +2255,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:20">
       <c r="B1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="E3" s="15">
+    <row r="3" spans="1:20">
+      <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="8">
         <v>2</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="8">
         <v>3</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="8">
         <v>4</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="8">
         <v>5</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="8">
         <v>6</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="8">
         <v>7</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="8">
         <v>8</v>
       </c>
-      <c r="M3" s="15">
-        <v>9</v>
-      </c>
-      <c r="N3" s="15">
+      <c r="M3" s="8">
+        <v>9</v>
+      </c>
+      <c r="N3" s="8">
         <v>10</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="8">
         <v>11</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="8">
         <v>12</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="8">
         <v>13</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="8">
         <v>14</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="8">
         <v>15</v>
       </c>
-      <c r="T3" s="15">
+      <c r="T3" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:20">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -2323,247 +2336,2088 @@
       <c r="D4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="V4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="12" t="str">
+        <f>IF($D5="HW",Anforderungen!C$3,IF($D5="HWN",Anforderungen!C$5,IF($D5="LG",Anforderungen!C$7,IF($D5="Dekon",Anforderungen!C$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="F5" s="12" t="str">
+        <f>IF($D5="HW",Anforderungen!D$3,IF($D5="HWN",Anforderungen!D$5,IF($D5="LG",Anforderungen!D$7,IF($D5="Dekon",Anforderungen!D$9,""))))</f>
+        <v>TLF</v>
+      </c>
+      <c r="G5" s="12" t="str">
+        <f>IF($D5="HW",Anforderungen!E$3,IF($D5="HWN",Anforderungen!E$5,IF($D5="LG",Anforderungen!E$7,IF($D5="Dekon",Anforderungen!E$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="H5" s="12" t="str">
+        <f>IF($D5="HW",Anforderungen!F$3,IF($D5="HWN",Anforderungen!F$5,IF($D5="LG",Anforderungen!F$7,IF($D5="Dekon",Anforderungen!F$9,""))))</f>
+        <v>MTW</v>
+      </c>
+      <c r="I5" s="12" t="str">
+        <f>IF($D5="HW",Anforderungen!G$3,IF($D5="HWN",Anforderungen!#REF!,IF($D5="LG",Anforderungen!G$7,IF($D5="Dekon",Anforderungen!G$9,""))))</f>
+        <v>ELW</v>
+      </c>
+      <c r="J5" s="12" t="str">
+        <f>IF($D5="HW",Anforderungen!H$3,IF($D5="HWN",Anforderungen!G$5,IF($D5="LG",Anforderungen!H$7,IF($D5="Dekon",Anforderungen!H$9,""))))</f>
+        <v>WLF</v>
+      </c>
+      <c r="K5" s="12" t="str">
+        <f>IF($D5="HW",Anforderungen!I$3,IF($D5="HWN",Anforderungen!H$5,IF($D5="LG",Anforderungen!I$7,IF($D5="Dekon",Anforderungen!I$9,""))))</f>
+        <v>WLF</v>
+      </c>
+      <c r="L5" s="12" t="str">
+        <f>IF($D5="HW",Anforderungen!J$3,IF($D5="HWN",Anforderungen!I$5,IF($D5="LG",Anforderungen!J$7,IF($D5="Dekon",Anforderungen!J$9,""))))</f>
+        <v>GW - G</v>
+      </c>
+      <c r="M5" s="12" t="str">
+        <f>IF($D5="HW",Anforderungen!K$3,IF($D5="HWN",Anforderungen!J$5,IF($D5="LG",Anforderungen!K$7,IF($D5="Dekon",Anforderungen!K$9,""))))</f>
+        <v>GW - G</v>
+      </c>
+      <c r="N5" s="12" t="str">
+        <f>IF($D5="HW",Anforderungen!L$3,IF($D5="HWN",Anforderungen!K$5,IF($D5="LG",Anforderungen!L$7,IF($D5="Dekon",Anforderungen!L$9,""))))</f>
+        <v>GW - G</v>
+      </c>
+      <c r="O5" s="12" t="str">
+        <f>IF($D5="HW",Anforderungen!M$3,IF($D5="HWN",Anforderungen!L$5,IF($D5="LG",Anforderungen!M$7,IF($D5="Dekon",Anforderungen!M$9,""))))</f>
+        <v>GW - Dekon</v>
+      </c>
+      <c r="P5" s="12" t="str">
+        <f>IF($D5="HW",Anforderungen!N$3,IF($D5="HWN",Anforderungen!N$5,IF($D5="LG",Anforderungen!N$7,IF($D5="Dekon",Anforderungen!N$9,""))))</f>
+        <v>GW - Dekon</v>
+      </c>
+      <c r="Q5" s="12" t="str">
+        <f>IF($D5="HW",Anforderungen!O$3,IF($D5="HWN",Anforderungen!O$5,IF($D5="LG",Anforderungen!O$7,IF($D5="Dekon",Anforderungen!O$9,""))))</f>
+        <v>GW - Mess</v>
+      </c>
+      <c r="R5" s="12" t="str">
+        <f>IF($D5="HW",Anforderungen!P$3,IF($D5="HWN",Anforderungen!P$5,IF($D5="LG",Anforderungen!P$7,IF($D5="Dekon",Anforderungen!P$9,""))))</f>
+        <v>GW - Mess</v>
+      </c>
+      <c r="S5" s="12" t="str">
+        <f>IF($D5="HW",Anforderungen!Q$3,IF($D5="HWN",Anforderungen!Q$5,IF($D5="LG",Anforderungen!Q$7,IF($D5="Dekon",Anforderungen!Q$9,""))))</f>
+        <v>GW - Mess</v>
+      </c>
+      <c r="T5" s="12" t="str">
+        <f>IF($D5="HW",Anforderungen!R$3,IF($D5="HWN",Anforderungen!R$5,IF($D5="LG",Anforderungen!R$7,IF($D5="Dekon",Anforderungen!R$9,""))))</f>
+        <v>GW - Öl</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>73</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="12" t="str">
+        <f>IF($D6="HW",Anforderungen!C$3,IF($D6="HWN",Anforderungen!C$5,IF($D6="LG",Anforderungen!C$7,IF($D6="Dekon",Anforderungen!C$9,""))))</f>
+        <v>TLF</v>
+      </c>
+      <c r="F6" s="12" t="str">
+        <f>IF($D6="HW",Anforderungen!D$3,IF($D6="HWN",Anforderungen!D$5,IF($D6="LG",Anforderungen!D$7,IF($D6="Dekon",Anforderungen!D$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="G6" s="12" t="str">
+        <f>IF($D6="HW",Anforderungen!E$3,IF($D6="HWN",Anforderungen!E$5,IF($D6="LG",Anforderungen!E$7,IF($D6="Dekon",Anforderungen!E$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="H6" s="12" t="str">
+        <f>IF($D6="HW",Anforderungen!F$3,IF($D6="HWN",Anforderungen!F$5,IF($D6="LG",Anforderungen!F$7,IF($D6="Dekon",Anforderungen!F$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="I6" s="12" t="str">
+        <f>IF($D6="HW",Anforderungen!G$3,IF($D6="HWN",Anforderungen!#REF!,IF($D6="LG",Anforderungen!G$7,IF($D6="Dekon",Anforderungen!G$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="J6" s="12" t="str">
+        <f>IF($D6="HW",Anforderungen!H$3,IF($D6="HWN",Anforderungen!G$5,IF($D6="LG",Anforderungen!H$7,IF($D6="Dekon",Anforderungen!H$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f>IF($D6="HW",Anforderungen!I$3,IF($D6="HWN",Anforderungen!H$5,IF($D6="LG",Anforderungen!I$7,IF($D6="Dekon",Anforderungen!I$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="L6" s="12" t="str">
+        <f>IF($D6="HW",Anforderungen!J$3,IF($D6="HWN",Anforderungen!I$5,IF($D6="LG",Anforderungen!J$7,IF($D6="Dekon",Anforderungen!J$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="M6" s="12" t="str">
+        <f>IF($D6="HW",Anforderungen!K$3,IF($D6="HWN",Anforderungen!J$5,IF($D6="LG",Anforderungen!K$7,IF($D6="Dekon",Anforderungen!K$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="N6" s="12" t="str">
+        <f>IF($D6="HW",Anforderungen!L$3,IF($D6="HWN",Anforderungen!K$5,IF($D6="LG",Anforderungen!L$7,IF($D6="Dekon",Anforderungen!L$9,""))))</f>
+        <v>ELW</v>
+      </c>
+      <c r="O6" s="12" t="str">
+        <f>IF($D6="HW",Anforderungen!M$3,IF($D6="HWN",Anforderungen!L$5,IF($D6="LG",Anforderungen!M$7,IF($D6="Dekon",Anforderungen!M$9,""))))</f>
+        <v>SW</v>
+      </c>
+      <c r="P6" s="12" t="str">
+        <f>IF($D6="HW",Anforderungen!N$3,IF($D6="HWN",Anforderungen!N$5,IF($D6="LG",Anforderungen!N$7,IF($D6="Dekon",Anforderungen!N$9,""))))</f>
+        <v>MTW</v>
+      </c>
+      <c r="Q6" s="12" t="str">
+        <f>IF($D6="HW",Anforderungen!O$3,IF($D6="HWN",Anforderungen!O$5,IF($D6="LG",Anforderungen!O$7,IF($D6="Dekon",Anforderungen!O$9,""))))</f>
+        <v>DLAK</v>
+      </c>
+      <c r="R6" s="12" t="str">
+        <f>IF($D6="HW",Anforderungen!P$3,IF($D6="HWN",Anforderungen!P$5,IF($D6="LG",Anforderungen!P$7,IF($D6="Dekon",Anforderungen!P$9,""))))</f>
+        <v>WLF</v>
+      </c>
+      <c r="S6" s="12" t="str">
+        <f>IF($D6="HW",Anforderungen!Q$3,IF($D6="HWN",Anforderungen!Q$5,IF($D6="LG",Anforderungen!Q$7,IF($D6="Dekon",Anforderungen!Q$9,""))))</f>
+        <v>RTW</v>
+      </c>
+      <c r="T6" s="12" t="str">
+        <f>IF($D6="HW",Anforderungen!R$3,IF($D6="HWN",Anforderungen!R$5,IF($D6="LG",Anforderungen!R$7,IF($D6="Dekon",Anforderungen!R$9,""))))</f>
+        <v>RTW</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="E7" s="12" t="str">
+        <f>IF($D7="HW",Anforderungen!C$3,IF($D7="HWN",Anforderungen!C$5,IF($D7="LG",Anforderungen!C$7,IF($D7="Dekon",Anforderungen!C$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="F7" s="12" t="str">
+        <f>IF($D7="HW",Anforderungen!D$3,IF($D7="HWN",Anforderungen!D$5,IF($D7="LG",Anforderungen!D$7,IF($D7="Dekon",Anforderungen!D$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="G7" s="12" t="str">
+        <f>IF($D7="HW",Anforderungen!E$3,IF($D7="HWN",Anforderungen!E$5,IF($D7="LG",Anforderungen!E$7,IF($D7="Dekon",Anforderungen!E$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="H7" s="12" t="str">
+        <f>IF($D7="HW",Anforderungen!F$3,IF($D7="HWN",Anforderungen!F$5,IF($D7="LG",Anforderungen!F$7,IF($D7="Dekon",Anforderungen!F$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="I7" s="12" t="str">
+        <f>IF($D7="HW",Anforderungen!G$3,IF($D7="HWN",Anforderungen!#REF!,IF($D7="LG",Anforderungen!G$7,IF($D7="Dekon",Anforderungen!G$9,""))))</f>
+        <v>GW - A</v>
+      </c>
+      <c r="J7" s="12" t="str">
+        <f>IF($D7="HW",Anforderungen!H$3,IF($D7="HWN",Anforderungen!G$5,IF($D7="LG",Anforderungen!H$7,IF($D7="Dekon",Anforderungen!H$9,""))))</f>
+        <v>GW-Mess</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f>IF($D7="HW",Anforderungen!I$3,IF($D7="HWN",Anforderungen!H$5,IF($D7="LG",Anforderungen!I$7,IF($D7="Dekon",Anforderungen!I$9,""))))</f>
+        <v>SW</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f>IF($D7="HW",Anforderungen!J$3,IF($D7="HWN",Anforderungen!I$5,IF($D7="LG",Anforderungen!J$7,IF($D7="Dekon",Anforderungen!J$9,""))))</f>
+        <v>DLAK</v>
+      </c>
+      <c r="M7" s="12" t="str">
+        <f>IF($D7="HW",Anforderungen!K$3,IF($D7="HWN",Anforderungen!J$5,IF($D7="LG",Anforderungen!K$7,IF($D7="Dekon",Anforderungen!K$9,""))))</f>
+        <v>ELW</v>
+      </c>
+      <c r="N7" s="12" t="str">
+        <f>IF($D7="HW",Anforderungen!L$3,IF($D7="HWN",Anforderungen!K$5,IF($D7="LG",Anforderungen!L$7,IF($D7="Dekon",Anforderungen!L$9,""))))</f>
+        <v>ELW 2</v>
+      </c>
+      <c r="O7" s="12" t="str">
+        <f>IF($D7="HW",Anforderungen!M$3,IF($D7="HWN",Anforderungen!L$5,IF($D7="LG",Anforderungen!M$7,IF($D7="Dekon",Anforderungen!M$9,""))))</f>
+        <v>ELW 2</v>
+      </c>
+      <c r="P7" s="12" t="str">
+        <f>IF($D7="HW",Anforderungen!N$3,IF($D7="HWN",Anforderungen!N$5,IF($D7="LG",Anforderungen!N$7,IF($D7="Dekon",Anforderungen!N$9,""))))</f>
+        <v>ELW 2</v>
+      </c>
+      <c r="Q7" s="12" t="str">
+        <f>IF($D7="HW",Anforderungen!O$3,IF($D7="HWN",Anforderungen!O$5,IF($D7="LG",Anforderungen!O$7,IF($D7="Dekon",Anforderungen!O$9,""))))</f>
+        <v>ELW 2</v>
+      </c>
+      <c r="R7" s="12" t="str">
+        <f>IF($D7="HW",Anforderungen!P$3,IF($D7="HWN",Anforderungen!P$5,IF($D7="LG",Anforderungen!P$7,IF($D7="Dekon",Anforderungen!P$9,""))))</f>
+        <v>WLF</v>
+      </c>
+      <c r="S7" s="12" t="str">
+        <f>IF($D7="HW",Anforderungen!Q$3,IF($D7="HWN",Anforderungen!Q$5,IF($D7="LG",Anforderungen!Q$7,IF($D7="Dekon",Anforderungen!Q$9,""))))</f>
+        <v>RTW</v>
+      </c>
+      <c r="T7" s="12" t="str">
+        <f>IF($D7="HW",Anforderungen!R$3,IF($D7="HWN",Anforderungen!R$5,IF($D7="LG",Anforderungen!R$7,IF($D7="Dekon",Anforderungen!R$9,""))))</f>
+        <v>RTW</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="E8" s="12" t="str">
+        <f>IF($D8="HW",Anforderungen!C$3,IF($D8="HWN",Anforderungen!C$5,IF($D8="LG",Anforderungen!C$7,IF($D8="Dekon",Anforderungen!C$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="F8" s="12" t="str">
+        <f>IF($D8="HW",Anforderungen!D$3,IF($D8="HWN",Anforderungen!D$5,IF($D8="LG",Anforderungen!D$7,IF($D8="Dekon",Anforderungen!D$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="G8" s="13" t="str">
+        <f>IF($D8="HW",Anforderungen!E$3,IF($D8="HWN",Anforderungen!E$5,IF($D8="LG",Anforderungen!E$7,IF($D8="Dekon",Anforderungen!E$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="H8" s="12" t="str">
+        <f>IF($D8="HW",Anforderungen!F$3,IF($D8="HWN",Anforderungen!F$5,IF($D8="LG",Anforderungen!F$7,IF($D8="Dekon",Anforderungen!F$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="I8" s="12" t="str">
+        <f>IF($D8="HW",Anforderungen!G$3,IF($D8="HWN",Anforderungen!G$5,IF($D8="LG",Anforderungen!G$7,IF($D8="Dekon",Anforderungen!G$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="J8" s="13" t="str">
+        <f>IF($D8="HW",Anforderungen!H$3,IF($D8="HWN",Anforderungen!H$5,IF($D8="LG",Anforderungen!H$7,IF($D8="Dekon",Anforderungen!H$9,""))))</f>
+        <v>GW - A</v>
+      </c>
+      <c r="K8" s="13" t="str">
+        <f>IF($D8="HW",Anforderungen!I$3,IF($D8="HWN",Anforderungen!I$5,IF($D8="LG",Anforderungen!I$7,IF($D8="Dekon",Anforderungen!I$9,""))))</f>
+        <v>SW</v>
+      </c>
+      <c r="L8" s="12" t="str">
+        <f>IF($D8="HW",Anforderungen!J$3,IF($D8="HWN",Anforderungen!J$5,IF($D8="LG",Anforderungen!J$7,IF($D8="Dekon",Anforderungen!J$9,""))))</f>
+        <v>DLAK</v>
+      </c>
+      <c r="M8" s="12" t="str">
+        <f>IF($D8="HW",Anforderungen!K$3,IF($D8="HWN",Anforderungen!K$5,IF($D8="LG",Anforderungen!K$7,IF($D8="Dekon",Anforderungen!K$9,""))))</f>
+        <v>GW - H</v>
+      </c>
+      <c r="N8" s="13" t="str">
+        <f>IF($D8="HW",Anforderungen!L$3,IF($D8="HWN",Anforderungen!L$5,IF($D8="LG",Anforderungen!L$7,IF($D8="Dekon",Anforderungen!L$9,""))))</f>
+        <v>GW - H</v>
+      </c>
+      <c r="O8" s="13">
+        <f>IF($D8="HW",Anforderungen!M$3,IF($D8="HWN",Anforderungen!M$5,IF($D8="LG",Anforderungen!M$7,IF($D8="Dekon",Anforderungen!M$9,""))))</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
+        <f>IF($D8="HW",Anforderungen!N$3,IF($D8="HWN",Anforderungen!N$5,IF($D8="LG",Anforderungen!N$7,IF($D8="Dekon",Anforderungen!N$9,""))))</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
+        <f>IF($D8="HW",Anforderungen!O$3,IF($D8="HWN",Anforderungen!O$5,IF($D8="LG",Anforderungen!O$7,IF($D8="Dekon",Anforderungen!O$9,""))))</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="12" t="str">
+        <f>IF($D8="HW",Anforderungen!P$3,IF($D8="HWN",Anforderungen!P$5,IF($D8="LG",Anforderungen!P$7,IF($D8="Dekon",Anforderungen!P$9,""))))</f>
+        <v>RW</v>
+      </c>
+      <c r="S8" s="13" t="str">
+        <f>IF($D8="HW",Anforderungen!Q$3,IF($D8="HWN",Anforderungen!Q$5,IF($D8="LG",Anforderungen!Q$7,IF($D8="Dekon",Anforderungen!Q$9,""))))</f>
+        <v>WLF</v>
+      </c>
+      <c r="T8" s="13" t="str">
+        <f>IF($D8="HW",Anforderungen!R$3,IF($D8="HWN",Anforderungen!R$5,IF($D8="LG",Anforderungen!R$7,IF($D8="Dekon",Anforderungen!R$9,""))))</f>
+        <v>WLF</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="E9" t="str">
+        <f>IF($D9="HW",Anforderungen!C$3,IF($D9="HWN",Anforderungen!C$5,IF($D9="LG",Anforderungen!C$7,IF($D9="Dekon",Anforderungen!C$9,""))))</f>
+        <v>TLF</v>
+      </c>
+      <c r="F9" s="12" t="str">
+        <f>IF($D9="HW",Anforderungen!D$3,IF($D9="HWN",Anforderungen!D$5,IF($D9="LG",Anforderungen!D$7,IF($D9="Dekon",Anforderungen!D$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="G9" s="12" t="str">
+        <f>IF($D9="HW",Anforderungen!E$3,IF($D9="HWN",Anforderungen!E$5,IF($D9="LG",Anforderungen!E$7,IF($D9="Dekon",Anforderungen!E$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="H9" s="12" t="str">
+        <f>IF($D9="HW",Anforderungen!F$3,IF($D9="HWN",Anforderungen!F$5,IF($D9="LG",Anforderungen!F$7,IF($D9="Dekon",Anforderungen!F$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="I9" s="12" t="str">
+        <f>IF($D9="HW",Anforderungen!G$3,IF($D9="HWN",Anforderungen!#REF!,IF($D9="LG",Anforderungen!G$7,IF($D9="Dekon",Anforderungen!G$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="J9" s="12" t="str">
+        <f>IF($D9="HW",Anforderungen!H$3,IF($D9="HWN",Anforderungen!G$5,IF($D9="LG",Anforderungen!H$7,IF($D9="Dekon",Anforderungen!H$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="K9" t="str">
+        <f>IF($D9="HW",Anforderungen!I$3,IF($D9="HWN",Anforderungen!H$5,IF($D9="LG",Anforderungen!I$7,IF($D9="Dekon",Anforderungen!I$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="L9" t="str">
+        <f>IF($D9="HW",Anforderungen!J$3,IF($D9="HWN",Anforderungen!I$5,IF($D9="LG",Anforderungen!J$7,IF($D9="Dekon",Anforderungen!J$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="M9" t="str">
+        <f>IF($D9="HW",Anforderungen!K$3,IF($D9="HWN",Anforderungen!J$5,IF($D9="LG",Anforderungen!K$7,IF($D9="Dekon",Anforderungen!K$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="N9" s="12" t="str">
+        <f>IF($D9="HW",Anforderungen!L$3,IF($D9="HWN",Anforderungen!K$5,IF($D9="LG",Anforderungen!L$7,IF($D9="Dekon",Anforderungen!L$9,""))))</f>
+        <v>ELW</v>
+      </c>
+      <c r="O9" s="12" t="str">
+        <f>IF($D9="HW",Anforderungen!M$3,IF($D9="HWN",Anforderungen!L$5,IF($D9="LG",Anforderungen!M$7,IF($D9="Dekon",Anforderungen!M$9,""))))</f>
+        <v>SW</v>
+      </c>
+      <c r="P9" t="str">
+        <f>IF($D9="HW",Anforderungen!N$3,IF($D9="HWN",Anforderungen!N$5,IF($D9="LG",Anforderungen!N$7,IF($D9="Dekon",Anforderungen!N$9,""))))</f>
+        <v>MTW</v>
+      </c>
+      <c r="Q9" s="12" t="str">
+        <f>IF($D9="HW",Anforderungen!O$3,IF($D9="HWN",Anforderungen!O$5,IF($D9="LG",Anforderungen!O$7,IF($D9="Dekon",Anforderungen!O$9,""))))</f>
+        <v>DLAK</v>
+      </c>
+      <c r="R9" s="12" t="str">
+        <f>IF($D9="HW",Anforderungen!P$3,IF($D9="HWN",Anforderungen!P$5,IF($D9="LG",Anforderungen!P$7,IF($D9="Dekon",Anforderungen!P$9,""))))</f>
+        <v>WLF</v>
+      </c>
+      <c r="S9" t="str">
+        <f>IF($D9="HW",Anforderungen!Q$3,IF($D9="HWN",Anforderungen!Q$5,IF($D9="LG",Anforderungen!Q$7,IF($D9="Dekon",Anforderungen!Q$9,""))))</f>
+        <v>RTW</v>
+      </c>
+      <c r="T9" t="str">
+        <f>IF($D9="HW",Anforderungen!R$3,IF($D9="HWN",Anforderungen!R$5,IF($D9="LG",Anforderungen!R$7,IF($D9="Dekon",Anforderungen!R$9,""))))</f>
+        <v>RTW</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="E10" t="str">
+        <f>IF($D10="HW",Anforderungen!C$3,IF($D10="HWN",Anforderungen!C$5,IF($D10="LG",Anforderungen!C$7,IF($D10="Dekon",Anforderungen!C$9,""))))</f>
+        <v>TLF</v>
+      </c>
+      <c r="F10" s="12" t="str">
+        <f>IF($D10="HW",Anforderungen!D$3,IF($D10="HWN",Anforderungen!D$5,IF($D10="LG",Anforderungen!D$7,IF($D10="Dekon",Anforderungen!D$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="G10" s="12" t="str">
+        <f>IF($D10="HW",Anforderungen!E$3,IF($D10="HWN",Anforderungen!E$5,IF($D10="LG",Anforderungen!E$7,IF($D10="Dekon",Anforderungen!E$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="H10" s="12" t="str">
+        <f>IF($D10="HW",Anforderungen!F$3,IF($D10="HWN",Anforderungen!F$5,IF($D10="LG",Anforderungen!F$7,IF($D10="Dekon",Anforderungen!F$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="I10" t="str">
+        <f>IF($D10="HW",Anforderungen!G$3,IF($D10="HWN",Anforderungen!#REF!,IF($D10="LG",Anforderungen!G$7,IF($D10="Dekon",Anforderungen!G$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="J10" s="12" t="str">
+        <f>IF($D10="HW",Anforderungen!H$3,IF($D10="HWN",Anforderungen!G$5,IF($D10="LG",Anforderungen!H$7,IF($D10="Dekon",Anforderungen!H$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="K10" t="str">
+        <f>IF($D10="HW",Anforderungen!I$3,IF($D10="HWN",Anforderungen!H$5,IF($D10="LG",Anforderungen!I$7,IF($D10="Dekon",Anforderungen!I$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="L10" t="str">
+        <f>IF($D10="HW",Anforderungen!J$3,IF($D10="HWN",Anforderungen!I$5,IF($D10="LG",Anforderungen!J$7,IF($D10="Dekon",Anforderungen!J$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="M10" t="str">
+        <f>IF($D10="HW",Anforderungen!K$3,IF($D10="HWN",Anforderungen!J$5,IF($D10="LG",Anforderungen!K$7,IF($D10="Dekon",Anforderungen!K$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="N10" s="12" t="str">
+        <f>IF($D10="HW",Anforderungen!L$3,IF($D10="HWN",Anforderungen!K$5,IF($D10="LG",Anforderungen!L$7,IF($D10="Dekon",Anforderungen!L$9,""))))</f>
+        <v>ELW</v>
+      </c>
+      <c r="O10" t="str">
+        <f>IF($D10="HW",Anforderungen!M$3,IF($D10="HWN",Anforderungen!L$5,IF($D10="LG",Anforderungen!M$7,IF($D10="Dekon",Anforderungen!M$9,""))))</f>
+        <v>SW</v>
+      </c>
+      <c r="P10" t="str">
+        <f>IF($D10="HW",Anforderungen!N$3,IF($D10="HWN",Anforderungen!N$5,IF($D10="LG",Anforderungen!N$7,IF($D10="Dekon",Anforderungen!N$9,""))))</f>
+        <v>MTW</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>IF($D10="HW",Anforderungen!O$3,IF($D10="HWN",Anforderungen!O$5,IF($D10="LG",Anforderungen!O$7,IF($D10="Dekon",Anforderungen!O$9,""))))</f>
+        <v>DLAK</v>
+      </c>
+      <c r="R10" t="str">
+        <f>IF($D10="HW",Anforderungen!P$3,IF($D10="HWN",Anforderungen!P$5,IF($D10="LG",Anforderungen!P$7,IF($D10="Dekon",Anforderungen!P$9,""))))</f>
+        <v>WLF</v>
+      </c>
+      <c r="S10" t="str">
+        <f>IF($D10="HW",Anforderungen!Q$3,IF($D10="HWN",Anforderungen!Q$5,IF($D10="LG",Anforderungen!Q$7,IF($D10="Dekon",Anforderungen!Q$9,""))))</f>
+        <v>RTW</v>
+      </c>
+      <c r="T10" t="str">
+        <f>IF($D10="HW",Anforderungen!R$3,IF($D10="HWN",Anforderungen!R$5,IF($D10="LG",Anforderungen!R$7,IF($D10="Dekon",Anforderungen!R$9,""))))</f>
+        <v>RTW</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="E11" t="str">
+        <f>IF($D11="HW",Anforderungen!C$3,IF($D11="HWN",Anforderungen!C$5,IF($D11="LG",Anforderungen!C$7,IF($D11="Dekon",Anforderungen!C$9,""))))</f>
+        <v>TLF</v>
+      </c>
+      <c r="F11" s="12" t="str">
+        <f>IF($D11="HW",Anforderungen!D$3,IF($D11="HWN",Anforderungen!D$5,IF($D11="LG",Anforderungen!D$7,IF($D11="Dekon",Anforderungen!D$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="G11" s="12" t="str">
+        <f>IF($D11="HW",Anforderungen!E$3,IF($D11="HWN",Anforderungen!E$5,IF($D11="LG",Anforderungen!E$7,IF($D11="Dekon",Anforderungen!E$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="H11" s="12" t="str">
+        <f>IF($D11="HW",Anforderungen!F$3,IF($D11="HWN",Anforderungen!F$5,IF($D11="LG",Anforderungen!F$7,IF($D11="Dekon",Anforderungen!F$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="I11" t="str">
+        <f>IF($D11="HW",Anforderungen!G$3,IF($D11="HWN",Anforderungen!#REF!,IF($D11="LG",Anforderungen!G$7,IF($D11="Dekon",Anforderungen!G$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="J11" s="12" t="str">
+        <f>IF($D11="HW",Anforderungen!H$3,IF($D11="HWN",Anforderungen!G$5,IF($D11="LG",Anforderungen!H$7,IF($D11="Dekon",Anforderungen!H$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="K11" t="str">
+        <f>IF($D11="HW",Anforderungen!I$3,IF($D11="HWN",Anforderungen!H$5,IF($D11="LG",Anforderungen!I$7,IF($D11="Dekon",Anforderungen!I$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="L11" t="str">
+        <f>IF($D11="HW",Anforderungen!J$3,IF($D11="HWN",Anforderungen!I$5,IF($D11="LG",Anforderungen!J$7,IF($D11="Dekon",Anforderungen!J$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="M11" t="str">
+        <f>IF($D11="HW",Anforderungen!K$3,IF($D11="HWN",Anforderungen!J$5,IF($D11="LG",Anforderungen!K$7,IF($D11="Dekon",Anforderungen!K$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="N11" t="str">
+        <f>IF($D11="HW",Anforderungen!L$3,IF($D11="HWN",Anforderungen!K$5,IF($D11="LG",Anforderungen!L$7,IF($D11="Dekon",Anforderungen!L$9,""))))</f>
+        <v>ELW</v>
+      </c>
+      <c r="O11" t="str">
+        <f>IF($D11="HW",Anforderungen!M$3,IF($D11="HWN",Anforderungen!L$5,IF($D11="LG",Anforderungen!M$7,IF($D11="Dekon",Anforderungen!M$9,""))))</f>
+        <v>SW</v>
+      </c>
+      <c r="P11" t="str">
+        <f>IF($D11="HW",Anforderungen!N$3,IF($D11="HWN",Anforderungen!N$5,IF($D11="LG",Anforderungen!N$7,IF($D11="Dekon",Anforderungen!N$9,""))))</f>
+        <v>MTW</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>IF($D11="HW",Anforderungen!O$3,IF($D11="HWN",Anforderungen!O$5,IF($D11="LG",Anforderungen!O$7,IF($D11="Dekon",Anforderungen!O$9,""))))</f>
+        <v>DLAK</v>
+      </c>
+      <c r="R11" t="str">
+        <f>IF($D11="HW",Anforderungen!P$3,IF($D11="HWN",Anforderungen!P$5,IF($D11="LG",Anforderungen!P$7,IF($D11="Dekon",Anforderungen!P$9,""))))</f>
+        <v>WLF</v>
+      </c>
+      <c r="S11" t="str">
+        <f>IF($D11="HW",Anforderungen!Q$3,IF($D11="HWN",Anforderungen!Q$5,IF($D11="LG",Anforderungen!Q$7,IF($D11="Dekon",Anforderungen!Q$9,""))))</f>
+        <v>RTW</v>
+      </c>
+      <c r="T11" t="str">
+        <f>IF($D11="HW",Anforderungen!R$3,IF($D11="HWN",Anforderungen!R$5,IF($D11="LG",Anforderungen!R$7,IF($D11="Dekon",Anforderungen!R$9,""))))</f>
+        <v>RTW</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="12" t="str">
+        <f>IF($D12="HW",Anforderungen!C$3,IF($D12="HWN",Anforderungen!C$5,IF($D12="LG",Anforderungen!C$7,IF($D12="Dekon",Anforderungen!C$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="F12" s="12" t="str">
+        <f>IF($D12="HW",Anforderungen!D$3,IF($D12="HWN",Anforderungen!D$5,IF($D12="LG",Anforderungen!D$7,IF($D12="Dekon",Anforderungen!D$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="G12" s="12" t="str">
+        <f>IF($D12="HW",Anforderungen!E$3,IF($D12="HWN",Anforderungen!E$5,IF($D12="LG",Anforderungen!E$7,IF($D12="Dekon",Anforderungen!E$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="H12" s="12" t="str">
+        <f>IF($D12="HW",Anforderungen!F$3,IF($D12="HWN",Anforderungen!F$5,IF($D12="LG",Anforderungen!F$7,IF($D12="Dekon",Anforderungen!F$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="I12" s="12" t="str">
+        <f>IF($D12="HW",Anforderungen!G$3,IF($D12="HWN",Anforderungen!#REF!,IF($D12="LG",Anforderungen!G$7,IF($D12="Dekon",Anforderungen!G$9,""))))</f>
+        <v>GW - A</v>
+      </c>
+      <c r="J12" s="12" t="str">
+        <f>IF($D12="HW",Anforderungen!H$3,IF($D12="HWN",Anforderungen!G$5,IF($D12="LG",Anforderungen!H$7,IF($D12="Dekon",Anforderungen!H$9,""))))</f>
+        <v>GW-Mess</v>
+      </c>
+      <c r="K12" s="12" t="str">
+        <f>IF($D12="HW",Anforderungen!I$3,IF($D12="HWN",Anforderungen!H$5,IF($D12="LG",Anforderungen!I$7,IF($D12="Dekon",Anforderungen!I$9,""))))</f>
+        <v>SW</v>
+      </c>
+      <c r="L12" s="12" t="str">
+        <f>IF($D12="HW",Anforderungen!J$3,IF($D12="HWN",Anforderungen!I$5,IF($D12="LG",Anforderungen!J$7,IF($D12="Dekon",Anforderungen!J$9,""))))</f>
+        <v>DLAK</v>
+      </c>
+      <c r="M12" s="12" t="str">
+        <f>IF($D12="HW",Anforderungen!K$3,IF($D12="HWN",Anforderungen!J$5,IF($D12="LG",Anforderungen!K$7,IF($D12="Dekon",Anforderungen!K$9,""))))</f>
+        <v>ELW</v>
+      </c>
+      <c r="N12" s="12" t="str">
+        <f>IF($D12="HW",Anforderungen!L$3,IF($D12="HWN",Anforderungen!K$5,IF($D12="LG",Anforderungen!L$7,IF($D12="Dekon",Anforderungen!L$9,""))))</f>
+        <v>ELW 2</v>
+      </c>
+      <c r="O12" s="12" t="str">
+        <f>IF($D12="HW",Anforderungen!M$3,IF($D12="HWN",Anforderungen!L$5,IF($D12="LG",Anforderungen!M$7,IF($D12="Dekon",Anforderungen!M$9,""))))</f>
+        <v>ELW 2</v>
+      </c>
+      <c r="P12" s="12" t="str">
+        <f>IF($D12="HW",Anforderungen!N$3,IF($D12="HWN",Anforderungen!N$5,IF($D12="LG",Anforderungen!N$7,IF($D12="Dekon",Anforderungen!N$9,""))))</f>
+        <v>ELW 2</v>
+      </c>
+      <c r="Q12" s="12" t="str">
+        <f>IF($D12="HW",Anforderungen!O$3,IF($D12="HWN",Anforderungen!O$5,IF($D12="LG",Anforderungen!O$7,IF($D12="Dekon",Anforderungen!O$9,""))))</f>
+        <v>ELW 2</v>
+      </c>
+      <c r="R12" s="12" t="str">
+        <f>IF($D12="HW",Anforderungen!P$3,IF($D12="HWN",Anforderungen!P$5,IF($D12="LG",Anforderungen!P$7,IF($D12="Dekon",Anforderungen!P$9,""))))</f>
+        <v>WLF</v>
+      </c>
+      <c r="S12" s="12" t="str">
+        <f>IF($D12="HW",Anforderungen!Q$3,IF($D12="HWN",Anforderungen!Q$5,IF($D12="LG",Anforderungen!Q$7,IF($D12="Dekon",Anforderungen!Q$9,""))))</f>
+        <v>RTW</v>
+      </c>
+      <c r="T12" s="12" t="str">
+        <f>IF($D12="HW",Anforderungen!R$3,IF($D12="HWN",Anforderungen!R$5,IF($D12="LG",Anforderungen!R$7,IF($D12="Dekon",Anforderungen!R$9,""))))</f>
+        <v>RTW</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="D13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="12" t="str">
+        <f>IF($D13="HW",Anforderungen!C$3,IF($D13="HWN",Anforderungen!C$5,IF($D13="LG",Anforderungen!C$7,IF($D13="Dekon",Anforderungen!C$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="F13" s="12" t="str">
+        <f>IF($D13="HW",Anforderungen!D$3,IF($D13="HWN",Anforderungen!D$5,IF($D13="LG",Anforderungen!D$7,IF($D13="Dekon",Anforderungen!D$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="G13" s="13" t="str">
+        <f>IF($D13="HW",Anforderungen!E$3,IF($D13="HWN",Anforderungen!E$5,IF($D13="LG",Anforderungen!E$7,IF($D13="Dekon",Anforderungen!E$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="H13" s="12" t="str">
+        <f>IF($D13="HW",Anforderungen!F$3,IF($D13="HWN",Anforderungen!F$5,IF($D13="LG",Anforderungen!F$7,IF($D13="Dekon",Anforderungen!F$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="I13" s="12" t="str">
+        <f>IF($D13="HW",Anforderungen!G$3,IF($D13="HWN",Anforderungen!G$5,IF($D13="LG",Anforderungen!G$7,IF($D13="Dekon",Anforderungen!G$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="J13" s="13" t="str">
+        <f>IF($D13="HW",Anforderungen!H$3,IF($D13="HWN",Anforderungen!H$5,IF($D13="LG",Anforderungen!H$7,IF($D13="Dekon",Anforderungen!H$9,""))))</f>
+        <v>GW - A</v>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f>IF($D13="HW",Anforderungen!I$3,IF($D13="HWN",Anforderungen!I$5,IF($D13="LG",Anforderungen!I$7,IF($D13="Dekon",Anforderungen!I$9,""))))</f>
+        <v>SW</v>
+      </c>
+      <c r="L13" s="13" t="str">
+        <f>IF($D13="HW",Anforderungen!J$3,IF($D13="HWN",Anforderungen!J$5,IF($D13="LG",Anforderungen!J$7,IF($D13="Dekon",Anforderungen!J$9,""))))</f>
+        <v>DLAK</v>
+      </c>
+      <c r="M13" s="13" t="str">
+        <f>IF($D13="HW",Anforderungen!K$3,IF($D13="HWN",Anforderungen!K$5,IF($D13="LG",Anforderungen!K$7,IF($D13="Dekon",Anforderungen!K$9,""))))</f>
+        <v>GW - H</v>
+      </c>
+      <c r="N13" s="13" t="str">
+        <f>IF($D13="HW",Anforderungen!L$3,IF($D13="HWN",Anforderungen!L$5,IF($D13="LG",Anforderungen!L$7,IF($D13="Dekon",Anforderungen!L$9,""))))</f>
+        <v>GW - H</v>
+      </c>
+      <c r="O13" s="13">
+        <f>IF($D13="HW",Anforderungen!M$3,IF($D13="HWN",Anforderungen!M$5,IF($D13="LG",Anforderungen!M$7,IF($D13="Dekon",Anforderungen!M$9,""))))</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="13">
+        <f>IF($D13="HW",Anforderungen!N$3,IF($D13="HWN",Anforderungen!N$5,IF($D13="LG",Anforderungen!N$7,IF($D13="Dekon",Anforderungen!N$9,""))))</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
+        <f>IF($D13="HW",Anforderungen!O$3,IF($D13="HWN",Anforderungen!O$5,IF($D13="LG",Anforderungen!O$7,IF($D13="Dekon",Anforderungen!O$9,""))))</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="12" t="str">
+        <f>IF($D13="HW",Anforderungen!P$3,IF($D13="HWN",Anforderungen!P$5,IF($D13="LG",Anforderungen!P$7,IF($D13="Dekon",Anforderungen!P$9,""))))</f>
+        <v>RW</v>
+      </c>
+      <c r="S13" s="13" t="str">
+        <f>IF($D13="HW",Anforderungen!Q$3,IF($D13="HWN",Anforderungen!Q$5,IF($D13="LG",Anforderungen!Q$7,IF($D13="Dekon",Anforderungen!Q$9,""))))</f>
+        <v>WLF</v>
+      </c>
+      <c r="T13" s="13" t="str">
+        <f>IF($D13="HW",Anforderungen!R$3,IF($D13="HWN",Anforderungen!R$5,IF($D13="LG",Anforderungen!R$7,IF($D13="Dekon",Anforderungen!R$9,""))))</f>
+        <v>WLF</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="12" t="str">
+        <f>IF($D14="HW",Anforderungen!C$3,IF($D14="HWN",Anforderungen!C$5,IF($D14="LG",Anforderungen!C$7,IF($D14="Dekon",Anforderungen!C$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="F14" s="12" t="str">
+        <f>IF($D14="HW",Anforderungen!D$3,IF($D14="HWN",Anforderungen!D$5,IF($D14="LG",Anforderungen!D$7,IF($D14="Dekon",Anforderungen!D$9,""))))</f>
+        <v>TLF</v>
+      </c>
+      <c r="G14" s="12" t="str">
+        <f>IF($D14="HW",Anforderungen!E$3,IF($D14="HWN",Anforderungen!E$5,IF($D14="LG",Anforderungen!E$7,IF($D14="Dekon",Anforderungen!E$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="H14" t="str">
+        <f>IF($D14="HW",Anforderungen!F$3,IF($D14="HWN",Anforderungen!F$5,IF($D14="LG",Anforderungen!F$7,IF($D14="Dekon",Anforderungen!F$9,""))))</f>
+        <v>MTW</v>
+      </c>
+      <c r="I14" s="12" t="str">
+        <f>IF($D14="HW",Anforderungen!G$3,IF($D14="HWN",Anforderungen!#REF!,IF($D14="LG",Anforderungen!G$7,IF($D14="Dekon",Anforderungen!G$9,""))))</f>
+        <v>ELW</v>
+      </c>
+      <c r="J14" t="str">
+        <f>IF($D14="HW",Anforderungen!H$3,IF($D14="HWN",Anforderungen!G$5,IF($D14="LG",Anforderungen!H$7,IF($D14="Dekon",Anforderungen!H$9,""))))</f>
+        <v>WLF</v>
+      </c>
+      <c r="K14" t="str">
+        <f>IF($D14="HW",Anforderungen!I$3,IF($D14="HWN",Anforderungen!H$5,IF($D14="LG",Anforderungen!I$7,IF($D14="Dekon",Anforderungen!I$9,""))))</f>
+        <v>WLF</v>
+      </c>
+      <c r="L14" t="str">
+        <f>IF($D14="HW",Anforderungen!J$3,IF($D14="HWN",Anforderungen!I$5,IF($D14="LG",Anforderungen!J$7,IF($D14="Dekon",Anforderungen!J$9,""))))</f>
+        <v>GW - G</v>
+      </c>
+      <c r="M14" t="str">
+        <f>IF($D14="HW",Anforderungen!K$3,IF($D14="HWN",Anforderungen!J$5,IF($D14="LG",Anforderungen!K$7,IF($D14="Dekon",Anforderungen!K$9,""))))</f>
+        <v>GW - G</v>
+      </c>
+      <c r="N14" t="str">
+        <f>IF($D14="HW",Anforderungen!L$3,IF($D14="HWN",Anforderungen!K$5,IF($D14="LG",Anforderungen!L$7,IF($D14="Dekon",Anforderungen!L$9,""))))</f>
+        <v>GW - G</v>
+      </c>
+      <c r="O14" t="str">
+        <f>IF($D14="HW",Anforderungen!M$3,IF($D14="HWN",Anforderungen!L$5,IF($D14="LG",Anforderungen!M$7,IF($D14="Dekon",Anforderungen!M$9,""))))</f>
+        <v>GW - Dekon</v>
+      </c>
+      <c r="P14" t="str">
+        <f>IF($D14="HW",Anforderungen!N$3,IF($D14="HWN",Anforderungen!N$5,IF($D14="LG",Anforderungen!N$7,IF($D14="Dekon",Anforderungen!N$9,""))))</f>
+        <v>GW - Dekon</v>
+      </c>
+      <c r="Q14" t="str">
+        <f>IF($D14="HW",Anforderungen!O$3,IF($D14="HWN",Anforderungen!O$5,IF($D14="LG",Anforderungen!O$7,IF($D14="Dekon",Anforderungen!O$9,""))))</f>
+        <v>GW - Mess</v>
+      </c>
+      <c r="R14" t="str">
+        <f>IF($D14="HW",Anforderungen!P$3,IF($D14="HWN",Anforderungen!P$5,IF($D14="LG",Anforderungen!P$7,IF($D14="Dekon",Anforderungen!P$9,""))))</f>
+        <v>GW - Mess</v>
+      </c>
+      <c r="S14" t="str">
+        <f>IF($D14="HW",Anforderungen!Q$3,IF($D14="HWN",Anforderungen!Q$5,IF($D14="LG",Anforderungen!Q$7,IF($D14="Dekon",Anforderungen!Q$9,""))))</f>
+        <v>GW - Mess</v>
+      </c>
+      <c r="T14" s="12" t="str">
+        <f>IF($D14="HW",Anforderungen!R$3,IF($D14="HWN",Anforderungen!R$5,IF($D14="LG",Anforderungen!R$7,IF($D14="Dekon",Anforderungen!R$9,""))))</f>
+        <v>GW - Öl</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="str">
+        <f>IF($D15="HW",Anforderungen!C$3,IF($D15="HWN",Anforderungen!C$5,IF($D15="LG",Anforderungen!C$7,IF($D15="Dekon",Anforderungen!C$9,""))))</f>
+        <v>TLF</v>
+      </c>
+      <c r="F15" s="12" t="str">
+        <f>IF($D15="HW",Anforderungen!D$3,IF($D15="HWN",Anforderungen!D$5,IF($D15="LG",Anforderungen!D$7,IF($D15="Dekon",Anforderungen!D$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="G15" s="12" t="str">
+        <f>IF($D15="HW",Anforderungen!E$3,IF($D15="HWN",Anforderungen!E$5,IF($D15="LG",Anforderungen!E$7,IF($D15="Dekon",Anforderungen!E$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="H15" t="str">
+        <f>IF($D15="HW",Anforderungen!F$3,IF($D15="HWN",Anforderungen!F$5,IF($D15="LG",Anforderungen!F$7,IF($D15="Dekon",Anforderungen!F$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="I15" t="str">
+        <f>IF($D15="HW",Anforderungen!G$3,IF($D15="HWN",Anforderungen!#REF!,IF($D15="LG",Anforderungen!G$7,IF($D15="Dekon",Anforderungen!G$9,""))))</f>
+        <v>LF</v>
+      </c>
+      <c r="J15" t="str">
+        <f>IF($D15="HW",Anforderungen!H$3,IF($D15="HWN",Anforderungen!G$5,IF($D15="LG",Anforderungen!H$7,IF($D15="Dekon",Anforderungen!H$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="K15" t="str">
+        <f>IF($D15="HW",Anforderungen!I$3,IF($D15="HWN",Anforderungen!H$5,IF($D15="LG",Anforderungen!I$7,IF($D15="Dekon",Anforderungen!I$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="L15" t="str">
+        <f>IF($D15="HW",Anforderungen!J$3,IF($D15="HWN",Anforderungen!I$5,IF($D15="LG",Anforderungen!J$7,IF($D15="Dekon",Anforderungen!J$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="M15" t="str">
+        <f>IF($D15="HW",Anforderungen!K$3,IF($D15="HWN",Anforderungen!J$5,IF($D15="LG",Anforderungen!K$7,IF($D15="Dekon",Anforderungen!K$9,""))))</f>
+        <v>HLF</v>
+      </c>
+      <c r="N15" t="str">
+        <f>IF($D15="HW",Anforderungen!L$3,IF($D15="HWN",Anforderungen!K$5,IF($D15="LG",Anforderungen!L$7,IF($D15="Dekon",Anforderungen!L$9,""))))</f>
+        <v>ELW</v>
+      </c>
+      <c r="O15" t="str">
+        <f>IF($D15="HW",Anforderungen!M$3,IF($D15="HWN",Anforderungen!L$5,IF($D15="LG",Anforderungen!M$7,IF($D15="Dekon",Anforderungen!M$9,""))))</f>
+        <v>SW</v>
+      </c>
+      <c r="P15" t="str">
+        <f>IF($D15="HW",Anforderungen!N$3,IF($D15="HWN",Anforderungen!N$5,IF($D15="LG",Anforderungen!N$7,IF($D15="Dekon",Anforderungen!N$9,""))))</f>
+        <v>MTW</v>
+      </c>
+      <c r="Q15" s="12" t="str">
+        <f>IF($D15="HW",Anforderungen!O$3,IF($D15="HWN",Anforderungen!O$5,IF($D15="LG",Anforderungen!O$7,IF($D15="Dekon",Anforderungen!O$9,""))))</f>
+        <v>DLAK</v>
+      </c>
+      <c r="R15" t="str">
+        <f>IF($D15="HW",Anforderungen!P$3,IF($D15="HWN",Anforderungen!P$5,IF($D15="LG",Anforderungen!P$7,IF($D15="Dekon",Anforderungen!P$9,""))))</f>
+        <v>WLF</v>
+      </c>
+      <c r="S15" t="str">
+        <f>IF($D15="HW",Anforderungen!Q$3,IF($D15="HWN",Anforderungen!Q$5,IF($D15="LG",Anforderungen!Q$7,IF($D15="Dekon",Anforderungen!Q$9,""))))</f>
+        <v>RTW</v>
+      </c>
+      <c r="T15" t="str">
+        <f>IF($D15="HW",Anforderungen!R$3,IF($D15="HWN",Anforderungen!R$5,IF($D15="LG",Anforderungen!R$7,IF($D15="Dekon",Anforderungen!R$9,""))))</f>
+        <v>RTW</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16" s="11"/>
+      <c r="D16" s="2"/>
+      <c r="E16" t="str">
+        <f>IF($D16="HW",Anforderungen!C$3,IF($D16="HWN",Anforderungen!C$5,IF($D16="LG",Anforderungen!C$7,IF($D16="Dekon",Anforderungen!C$9,""))))</f>
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <f>IF($D16="HW",Anforderungen!D$3,IF($D16="HWN",Anforderungen!D$5,IF($D16="LG",Anforderungen!D$7,IF($D16="Dekon",Anforderungen!D$9,""))))</f>
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <f>IF($D16="HW",Anforderungen!E$3,IF($D16="HWN",Anforderungen!E$5,IF($D16="LG",Anforderungen!E$7,IF($D16="Dekon",Anforderungen!E$9,""))))</f>
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <f>IF($D16="HW",Anforderungen!F$3,IF($D16="HWN",Anforderungen!F$5,IF($D16="LG",Anforderungen!F$7,IF($D16="Dekon",Anforderungen!F$9,""))))</f>
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <f>IF($D16="HW",Anforderungen!G$3,IF($D16="HWN",Anforderungen!#REF!,IF($D16="LG",Anforderungen!G$7,IF($D16="Dekon",Anforderungen!G$9,""))))</f>
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <f>IF($D16="HW",Anforderungen!H$3,IF($D16="HWN",Anforderungen!G$5,IF($D16="LG",Anforderungen!H$7,IF($D16="Dekon",Anforderungen!H$9,""))))</f>
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <f>IF($D16="HW",Anforderungen!I$3,IF($D16="HWN",Anforderungen!H$5,IF($D16="LG",Anforderungen!I$7,IF($D16="Dekon",Anforderungen!I$9,""))))</f>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f>IF($D16="HW",Anforderungen!J$3,IF($D16="HWN",Anforderungen!I$5,IF($D16="LG",Anforderungen!J$7,IF($D16="Dekon",Anforderungen!J$9,""))))</f>
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <f>IF($D16="HW",Anforderungen!K$3,IF($D16="HWN",Anforderungen!J$5,IF($D16="LG",Anforderungen!K$7,IF($D16="Dekon",Anforderungen!K$9,""))))</f>
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <f>IF($D16="HW",Anforderungen!L$3,IF($D16="HWN",Anforderungen!K$5,IF($D16="LG",Anforderungen!L$7,IF($D16="Dekon",Anforderungen!L$9,""))))</f>
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <f>IF($D16="HW",Anforderungen!M$3,IF($D16="HWN",Anforderungen!L$5,IF($D16="LG",Anforderungen!M$7,IF($D16="Dekon",Anforderungen!M$9,""))))</f>
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <f>IF($D16="HW",Anforderungen!N$3,IF($D16="HWN",Anforderungen!N$5,IF($D16="LG",Anforderungen!N$7,IF($D16="Dekon",Anforderungen!N$9,""))))</f>
+        <v/>
+      </c>
+      <c r="Q16" t="str">
+        <f>IF($D16="HW",Anforderungen!O$3,IF($D16="HWN",Anforderungen!O$5,IF($D16="LG",Anforderungen!O$7,IF($D16="Dekon",Anforderungen!O$9,""))))</f>
+        <v/>
+      </c>
+      <c r="R16" t="str">
+        <f>IF($D16="HW",Anforderungen!P$3,IF($D16="HWN",Anforderungen!P$5,IF($D16="LG",Anforderungen!P$7,IF($D16="Dekon",Anforderungen!P$9,""))))</f>
+        <v/>
+      </c>
+      <c r="S16" t="str">
+        <f>IF($D16="HW",Anforderungen!Q$3,IF($D16="HWN",Anforderungen!Q$5,IF($D16="LG",Anforderungen!Q$7,IF($D16="Dekon",Anforderungen!Q$9,""))))</f>
+        <v/>
+      </c>
+      <c r="T16" t="str">
+        <f>IF($D16="HW",Anforderungen!R$3,IF($D16="HWN",Anforderungen!R$5,IF($D16="LG",Anforderungen!R$7,IF($D16="Dekon",Anforderungen!R$9,""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17" s="11"/>
+      <c r="D17" s="2"/>
+      <c r="E17" t="str">
+        <f>IF($D17="HW",Anforderungen!C$3,IF($D17="HWN",Anforderungen!C$5,IF($D17="LG",Anforderungen!C$7,IF($D17="Dekon",Anforderungen!C$9,""))))</f>
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <f>IF($D17="HW",Anforderungen!D$3,IF($D17="HWN",Anforderungen!D$5,IF($D17="LG",Anforderungen!D$7,IF($D17="Dekon",Anforderungen!D$9,""))))</f>
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <f>IF($D17="HW",Anforderungen!E$3,IF($D17="HWN",Anforderungen!E$5,IF($D17="LG",Anforderungen!E$7,IF($D17="Dekon",Anforderungen!E$9,""))))</f>
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <f>IF($D17="HW",Anforderungen!F$3,IF($D17="HWN",Anforderungen!F$5,IF($D17="LG",Anforderungen!F$7,IF($D17="Dekon",Anforderungen!F$9,""))))</f>
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <f>IF($D17="HW",Anforderungen!G$3,IF($D17="HWN",Anforderungen!#REF!,IF($D17="LG",Anforderungen!G$7,IF($D17="Dekon",Anforderungen!G$9,""))))</f>
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <f>IF($D17="HW",Anforderungen!H$3,IF($D17="HWN",Anforderungen!G$5,IF($D17="LG",Anforderungen!H$7,IF($D17="Dekon",Anforderungen!H$9,""))))</f>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f>IF($D17="HW",Anforderungen!I$3,IF($D17="HWN",Anforderungen!H$5,IF($D17="LG",Anforderungen!I$7,IF($D17="Dekon",Anforderungen!I$9,""))))</f>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f>IF($D17="HW",Anforderungen!J$3,IF($D17="HWN",Anforderungen!I$5,IF($D17="LG",Anforderungen!J$7,IF($D17="Dekon",Anforderungen!J$9,""))))</f>
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <f>IF($D17="HW",Anforderungen!K$3,IF($D17="HWN",Anforderungen!J$5,IF($D17="LG",Anforderungen!K$7,IF($D17="Dekon",Anforderungen!K$9,""))))</f>
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <f>IF($D17="HW",Anforderungen!L$3,IF($D17="HWN",Anforderungen!K$5,IF($D17="LG",Anforderungen!L$7,IF($D17="Dekon",Anforderungen!L$9,""))))</f>
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <f>IF($D17="HW",Anforderungen!M$3,IF($D17="HWN",Anforderungen!L$5,IF($D17="LG",Anforderungen!M$7,IF($D17="Dekon",Anforderungen!M$9,""))))</f>
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <f>IF($D17="HW",Anforderungen!N$3,IF($D17="HWN",Anforderungen!N$5,IF($D17="LG",Anforderungen!N$7,IF($D17="Dekon",Anforderungen!N$9,""))))</f>
+        <v/>
+      </c>
+      <c r="Q17" t="str">
+        <f>IF($D17="HW",Anforderungen!O$3,IF($D17="HWN",Anforderungen!O$5,IF($D17="LG",Anforderungen!O$7,IF($D17="Dekon",Anforderungen!O$9,""))))</f>
+        <v/>
+      </c>
+      <c r="R17" t="str">
+        <f>IF($D17="HW",Anforderungen!P$3,IF($D17="HWN",Anforderungen!P$5,IF($D17="LG",Anforderungen!P$7,IF($D17="Dekon",Anforderungen!P$9,""))))</f>
+        <v/>
+      </c>
+      <c r="S17" t="str">
+        <f>IF($D17="HW",Anforderungen!Q$3,IF($D17="HWN",Anforderungen!Q$5,IF($D17="LG",Anforderungen!Q$7,IF($D17="Dekon",Anforderungen!Q$9,""))))</f>
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <f>IF($D17="HW",Anforderungen!R$3,IF($D17="HWN",Anforderungen!R$5,IF($D17="LG",Anforderungen!R$7,IF($D17="Dekon",Anforderungen!R$9,""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18" s="11"/>
+      <c r="D18" s="2"/>
+      <c r="E18" t="str">
+        <f>IF($D18="HW",Anforderungen!C$3,IF($D18="HWN",Anforderungen!C$5,IF($D18="LG",Anforderungen!C$7,IF($D18="Dekon",Anforderungen!C$9,""))))</f>
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <f>IF($D18="HW",Anforderungen!D$3,IF($D18="HWN",Anforderungen!D$5,IF($D18="LG",Anforderungen!D$7,IF($D18="Dekon",Anforderungen!D$9,""))))</f>
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <f>IF($D18="HW",Anforderungen!E$3,IF($D18="HWN",Anforderungen!E$5,IF($D18="LG",Anforderungen!E$7,IF($D18="Dekon",Anforderungen!E$9,""))))</f>
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <f>IF($D18="HW",Anforderungen!F$3,IF($D18="HWN",Anforderungen!F$5,IF($D18="LG",Anforderungen!F$7,IF($D18="Dekon",Anforderungen!F$9,""))))</f>
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <f>IF($D18="HW",Anforderungen!G$3,IF($D18="HWN",Anforderungen!#REF!,IF($D18="LG",Anforderungen!G$7,IF($D18="Dekon",Anforderungen!G$9,""))))</f>
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <f>IF($D18="HW",Anforderungen!H$3,IF($D18="HWN",Anforderungen!G$5,IF($D18="LG",Anforderungen!H$7,IF($D18="Dekon",Anforderungen!H$9,""))))</f>
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <f>IF($D18="HW",Anforderungen!I$3,IF($D18="HWN",Anforderungen!H$5,IF($D18="LG",Anforderungen!I$7,IF($D18="Dekon",Anforderungen!I$9,""))))</f>
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <f>IF($D18="HW",Anforderungen!J$3,IF($D18="HWN",Anforderungen!I$5,IF($D18="LG",Anforderungen!J$7,IF($D18="Dekon",Anforderungen!J$9,""))))</f>
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <f>IF($D18="HW",Anforderungen!K$3,IF($D18="HWN",Anforderungen!J$5,IF($D18="LG",Anforderungen!K$7,IF($D18="Dekon",Anforderungen!K$9,""))))</f>
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <f>IF($D18="HW",Anforderungen!L$3,IF($D18="HWN",Anforderungen!K$5,IF($D18="LG",Anforderungen!L$7,IF($D18="Dekon",Anforderungen!L$9,""))))</f>
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <f>IF($D18="HW",Anforderungen!M$3,IF($D18="HWN",Anforderungen!L$5,IF($D18="LG",Anforderungen!M$7,IF($D18="Dekon",Anforderungen!M$9,""))))</f>
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <f>IF($D18="HW",Anforderungen!N$3,IF($D18="HWN",Anforderungen!N$5,IF($D18="LG",Anforderungen!N$7,IF($D18="Dekon",Anforderungen!N$9,""))))</f>
+        <v/>
+      </c>
+      <c r="Q18" t="str">
+        <f>IF($D18="HW",Anforderungen!O$3,IF($D18="HWN",Anforderungen!O$5,IF($D18="LG",Anforderungen!O$7,IF($D18="Dekon",Anforderungen!O$9,""))))</f>
+        <v/>
+      </c>
+      <c r="R18" t="str">
+        <f>IF($D18="HW",Anforderungen!P$3,IF($D18="HWN",Anforderungen!P$5,IF($D18="LG",Anforderungen!P$7,IF($D18="Dekon",Anforderungen!P$9,""))))</f>
+        <v/>
+      </c>
+      <c r="S18" t="str">
+        <f>IF($D18="HW",Anforderungen!Q$3,IF($D18="HWN",Anforderungen!Q$5,IF($D18="LG",Anforderungen!Q$7,IF($D18="Dekon",Anforderungen!Q$9,""))))</f>
+        <v/>
+      </c>
+      <c r="T18" t="str">
+        <f>IF($D18="HW",Anforderungen!R$3,IF($D18="HWN",Anforderungen!R$5,IF($D18="LG",Anforderungen!R$7,IF($D18="Dekon",Anforderungen!R$9,""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19" s="11"/>
+      <c r="D19" s="2"/>
+      <c r="E19" t="str">
+        <f>IF($D19="HW",Anforderungen!C$3,IF($D19="HWN",Anforderungen!C$5,IF($D19="LG",Anforderungen!C$7,IF($D19="Dekon",Anforderungen!C$9,""))))</f>
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <f>IF($D19="HW",Anforderungen!D$3,IF($D19="HWN",Anforderungen!D$5,IF($D19="LG",Anforderungen!D$7,IF($D19="Dekon",Anforderungen!D$9,""))))</f>
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <f>IF($D19="HW",Anforderungen!E$3,IF($D19="HWN",Anforderungen!E$5,IF($D19="LG",Anforderungen!E$7,IF($D19="Dekon",Anforderungen!E$9,""))))</f>
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <f>IF($D19="HW",Anforderungen!F$3,IF($D19="HWN",Anforderungen!F$5,IF($D19="LG",Anforderungen!F$7,IF($D19="Dekon",Anforderungen!F$9,""))))</f>
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <f>IF($D19="HW",Anforderungen!G$3,IF($D19="HWN",Anforderungen!#REF!,IF($D19="LG",Anforderungen!G$7,IF($D19="Dekon",Anforderungen!G$9,""))))</f>
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <f>IF($D19="HW",Anforderungen!H$3,IF($D19="HWN",Anforderungen!G$5,IF($D19="LG",Anforderungen!H$7,IF($D19="Dekon",Anforderungen!H$9,""))))</f>
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <f>IF($D19="HW",Anforderungen!I$3,IF($D19="HWN",Anforderungen!H$5,IF($D19="LG",Anforderungen!I$7,IF($D19="Dekon",Anforderungen!I$9,""))))</f>
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <f>IF($D19="HW",Anforderungen!J$3,IF($D19="HWN",Anforderungen!I$5,IF($D19="LG",Anforderungen!J$7,IF($D19="Dekon",Anforderungen!J$9,""))))</f>
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <f>IF($D19="HW",Anforderungen!K$3,IF($D19="HWN",Anforderungen!J$5,IF($D19="LG",Anforderungen!K$7,IF($D19="Dekon",Anforderungen!K$9,""))))</f>
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <f>IF($D19="HW",Anforderungen!L$3,IF($D19="HWN",Anforderungen!K$5,IF($D19="LG",Anforderungen!L$7,IF($D19="Dekon",Anforderungen!L$9,""))))</f>
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <f>IF($D19="HW",Anforderungen!M$3,IF($D19="HWN",Anforderungen!L$5,IF($D19="LG",Anforderungen!M$7,IF($D19="Dekon",Anforderungen!M$9,""))))</f>
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <f>IF($D19="HW",Anforderungen!N$3,IF($D19="HWN",Anforderungen!N$5,IF($D19="LG",Anforderungen!N$7,IF($D19="Dekon",Anforderungen!N$9,""))))</f>
+        <v/>
+      </c>
+      <c r="Q19" t="str">
+        <f>IF($D19="HW",Anforderungen!O$3,IF($D19="HWN",Anforderungen!O$5,IF($D19="LG",Anforderungen!O$7,IF($D19="Dekon",Anforderungen!O$9,""))))</f>
+        <v/>
+      </c>
+      <c r="R19" t="str">
+        <f>IF($D19="HW",Anforderungen!P$3,IF($D19="HWN",Anforderungen!P$5,IF($D19="LG",Anforderungen!P$7,IF($D19="Dekon",Anforderungen!P$9,""))))</f>
+        <v/>
+      </c>
+      <c r="S19" t="str">
+        <f>IF($D19="HW",Anforderungen!Q$3,IF($D19="HWN",Anforderungen!Q$5,IF($D19="LG",Anforderungen!Q$7,IF($D19="Dekon",Anforderungen!Q$9,""))))</f>
+        <v/>
+      </c>
+      <c r="T19" t="str">
+        <f>IF($D19="HW",Anforderungen!R$3,IF($D19="HWN",Anforderungen!R$5,IF($D19="LG",Anforderungen!R$7,IF($D19="Dekon",Anforderungen!R$9,""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20" s="11"/>
+      <c r="D20" s="2"/>
+      <c r="E20" t="str">
+        <f>IF($D20="HW",Anforderungen!C$3,IF($D20="HWN",Anforderungen!C$5,IF($D20="LG",Anforderungen!C$7,IF($D20="Dekon",Anforderungen!C$9,""))))</f>
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <f>IF($D20="HW",Anforderungen!D$3,IF($D20="HWN",Anforderungen!D$5,IF($D20="LG",Anforderungen!D$7,IF($D20="Dekon",Anforderungen!D$9,""))))</f>
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <f>IF($D20="HW",Anforderungen!E$3,IF($D20="HWN",Anforderungen!E$5,IF($D20="LG",Anforderungen!E$7,IF($D20="Dekon",Anforderungen!E$9,""))))</f>
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <f>IF($D20="HW",Anforderungen!F$3,IF($D20="HWN",Anforderungen!F$5,IF($D20="LG",Anforderungen!F$7,IF($D20="Dekon",Anforderungen!F$9,""))))</f>
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <f>IF($D20="HW",Anforderungen!G$3,IF($D20="HWN",Anforderungen!#REF!,IF($D20="LG",Anforderungen!G$7,IF($D20="Dekon",Anforderungen!G$9,""))))</f>
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <f>IF($D20="HW",Anforderungen!H$3,IF($D20="HWN",Anforderungen!G$5,IF($D20="LG",Anforderungen!H$7,IF($D20="Dekon",Anforderungen!H$9,""))))</f>
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <f>IF($D20="HW",Anforderungen!I$3,IF($D20="HWN",Anforderungen!H$5,IF($D20="LG",Anforderungen!I$7,IF($D20="Dekon",Anforderungen!I$9,""))))</f>
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <f>IF($D20="HW",Anforderungen!J$3,IF($D20="HWN",Anforderungen!I$5,IF($D20="LG",Anforderungen!J$7,IF($D20="Dekon",Anforderungen!J$9,""))))</f>
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <f>IF($D20="HW",Anforderungen!K$3,IF($D20="HWN",Anforderungen!J$5,IF($D20="LG",Anforderungen!K$7,IF($D20="Dekon",Anforderungen!K$9,""))))</f>
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <f>IF($D20="HW",Anforderungen!L$3,IF($D20="HWN",Anforderungen!K$5,IF($D20="LG",Anforderungen!L$7,IF($D20="Dekon",Anforderungen!L$9,""))))</f>
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <f>IF($D20="HW",Anforderungen!M$3,IF($D20="HWN",Anforderungen!L$5,IF($D20="LG",Anforderungen!M$7,IF($D20="Dekon",Anforderungen!M$9,""))))</f>
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <f>IF($D20="HW",Anforderungen!N$3,IF($D20="HWN",Anforderungen!N$5,IF($D20="LG",Anforderungen!N$7,IF($D20="Dekon",Anforderungen!N$9,""))))</f>
+        <v/>
+      </c>
+      <c r="Q20" t="str">
+        <f>IF($D20="HW",Anforderungen!O$3,IF($D20="HWN",Anforderungen!O$5,IF($D20="LG",Anforderungen!O$7,IF($D20="Dekon",Anforderungen!O$9,""))))</f>
+        <v/>
+      </c>
+      <c r="R20" t="str">
+        <f>IF($D20="HW",Anforderungen!P$3,IF($D20="HWN",Anforderungen!P$5,IF($D20="LG",Anforderungen!P$7,IF($D20="Dekon",Anforderungen!P$9,""))))</f>
+        <v/>
+      </c>
+      <c r="S20" t="str">
+        <f>IF($D20="HW",Anforderungen!Q$3,IF($D20="HWN",Anforderungen!Q$5,IF($D20="LG",Anforderungen!Q$7,IF($D20="Dekon",Anforderungen!Q$9,""))))</f>
+        <v/>
+      </c>
+      <c r="T20" t="str">
+        <f>IF($D20="HW",Anforderungen!R$3,IF($D20="HWN",Anforderungen!R$5,IF($D20="LG",Anforderungen!R$7,IF($D20="Dekon",Anforderungen!R$9,""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21" s="11"/>
+      <c r="D21" s="2"/>
+      <c r="E21" t="str">
+        <f>IF($D21="HW",Anforderungen!C$3,IF($D21="HWN",Anforderungen!C$5,IF($D21="LG",Anforderungen!C$7,IF($D21="Dekon",Anforderungen!C$9,""))))</f>
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <f>IF($D21="HW",Anforderungen!D$3,IF($D21="HWN",Anforderungen!D$5,IF($D21="LG",Anforderungen!D$7,IF($D21="Dekon",Anforderungen!D$9,""))))</f>
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <f>IF($D21="HW",Anforderungen!E$3,IF($D21="HWN",Anforderungen!E$5,IF($D21="LG",Anforderungen!E$7,IF($D21="Dekon",Anforderungen!E$9,""))))</f>
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <f>IF($D21="HW",Anforderungen!F$3,IF($D21="HWN",Anforderungen!F$5,IF($D21="LG",Anforderungen!F$7,IF($D21="Dekon",Anforderungen!F$9,""))))</f>
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <f>IF($D21="HW",Anforderungen!G$3,IF($D21="HWN",Anforderungen!#REF!,IF($D21="LG",Anforderungen!G$7,IF($D21="Dekon",Anforderungen!G$9,""))))</f>
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <f>IF($D21="HW",Anforderungen!H$3,IF($D21="HWN",Anforderungen!G$5,IF($D21="LG",Anforderungen!H$7,IF($D21="Dekon",Anforderungen!H$9,""))))</f>
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <f>IF($D21="HW",Anforderungen!I$3,IF($D21="HWN",Anforderungen!H$5,IF($D21="LG",Anforderungen!I$7,IF($D21="Dekon",Anforderungen!I$9,""))))</f>
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <f>IF($D21="HW",Anforderungen!J$3,IF($D21="HWN",Anforderungen!I$5,IF($D21="LG",Anforderungen!J$7,IF($D21="Dekon",Anforderungen!J$9,""))))</f>
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <f>IF($D21="HW",Anforderungen!K$3,IF($D21="HWN",Anforderungen!J$5,IF($D21="LG",Anforderungen!K$7,IF($D21="Dekon",Anforderungen!K$9,""))))</f>
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <f>IF($D21="HW",Anforderungen!L$3,IF($D21="HWN",Anforderungen!K$5,IF($D21="LG",Anforderungen!L$7,IF($D21="Dekon",Anforderungen!L$9,""))))</f>
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <f>IF($D21="HW",Anforderungen!M$3,IF($D21="HWN",Anforderungen!L$5,IF($D21="LG",Anforderungen!M$7,IF($D21="Dekon",Anforderungen!M$9,""))))</f>
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <f>IF($D21="HW",Anforderungen!N$3,IF($D21="HWN",Anforderungen!N$5,IF($D21="LG",Anforderungen!N$7,IF($D21="Dekon",Anforderungen!N$9,""))))</f>
+        <v/>
+      </c>
+      <c r="Q21" t="str">
+        <f>IF($D21="HW",Anforderungen!O$3,IF($D21="HWN",Anforderungen!O$5,IF($D21="LG",Anforderungen!O$7,IF($D21="Dekon",Anforderungen!O$9,""))))</f>
+        <v/>
+      </c>
+      <c r="R21" t="str">
+        <f>IF($D21="HW",Anforderungen!P$3,IF($D21="HWN",Anforderungen!P$5,IF($D21="LG",Anforderungen!P$7,IF($D21="Dekon",Anforderungen!P$9,""))))</f>
+        <v/>
+      </c>
+      <c r="S21" t="str">
+        <f>IF($D21="HW",Anforderungen!Q$3,IF($D21="HWN",Anforderungen!Q$5,IF($D21="LG",Anforderungen!Q$7,IF($D21="Dekon",Anforderungen!Q$9,""))))</f>
+        <v/>
+      </c>
+      <c r="T21" t="str">
+        <f>IF($D21="HW",Anforderungen!R$3,IF($D21="HWN",Anforderungen!R$5,IF($D21="LG",Anforderungen!R$7,IF($D21="Dekon",Anforderungen!R$9,""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22" s="11"/>
+      <c r="D22" s="2"/>
+      <c r="E22" t="str">
+        <f>IF($D22="HW",Anforderungen!C$3,IF($D22="HWN",Anforderungen!C$5,IF($D22="LG",Anforderungen!C$7,IF($D22="Dekon",Anforderungen!C$9,""))))</f>
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <f>IF($D22="HW",Anforderungen!D$3,IF($D22="HWN",Anforderungen!D$5,IF($D22="LG",Anforderungen!D$7,IF($D22="Dekon",Anforderungen!D$9,""))))</f>
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <f>IF($D22="HW",Anforderungen!E$3,IF($D22="HWN",Anforderungen!E$5,IF($D22="LG",Anforderungen!E$7,IF($D22="Dekon",Anforderungen!E$9,""))))</f>
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <f>IF($D22="HW",Anforderungen!F$3,IF($D22="HWN",Anforderungen!F$5,IF($D22="LG",Anforderungen!F$7,IF($D22="Dekon",Anforderungen!F$9,""))))</f>
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <f>IF($D22="HW",Anforderungen!G$3,IF($D22="HWN",Anforderungen!#REF!,IF($D22="LG",Anforderungen!G$7,IF($D22="Dekon",Anforderungen!G$9,""))))</f>
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <f>IF($D22="HW",Anforderungen!H$3,IF($D22="HWN",Anforderungen!G$5,IF($D22="LG",Anforderungen!H$7,IF($D22="Dekon",Anforderungen!H$9,""))))</f>
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <f>IF($D22="HW",Anforderungen!I$3,IF($D22="HWN",Anforderungen!H$5,IF($D22="LG",Anforderungen!I$7,IF($D22="Dekon",Anforderungen!I$9,""))))</f>
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <f>IF($D22="HW",Anforderungen!J$3,IF($D22="HWN",Anforderungen!I$5,IF($D22="LG",Anforderungen!J$7,IF($D22="Dekon",Anforderungen!J$9,""))))</f>
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <f>IF($D22="HW",Anforderungen!K$3,IF($D22="HWN",Anforderungen!J$5,IF($D22="LG",Anforderungen!K$7,IF($D22="Dekon",Anforderungen!K$9,""))))</f>
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <f>IF($D22="HW",Anforderungen!L$3,IF($D22="HWN",Anforderungen!K$5,IF($D22="LG",Anforderungen!L$7,IF($D22="Dekon",Anforderungen!L$9,""))))</f>
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <f>IF($D22="HW",Anforderungen!M$3,IF($D22="HWN",Anforderungen!L$5,IF($D22="LG",Anforderungen!M$7,IF($D22="Dekon",Anforderungen!M$9,""))))</f>
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <f>IF($D22="HW",Anforderungen!N$3,IF($D22="HWN",Anforderungen!N$5,IF($D22="LG",Anforderungen!N$7,IF($D22="Dekon",Anforderungen!N$9,""))))</f>
+        <v/>
+      </c>
+      <c r="Q22" t="str">
+        <f>IF($D22="HW",Anforderungen!O$3,IF($D22="HWN",Anforderungen!O$5,IF($D22="LG",Anforderungen!O$7,IF($D22="Dekon",Anforderungen!O$9,""))))</f>
+        <v/>
+      </c>
+      <c r="R22" t="str">
+        <f>IF($D22="HW",Anforderungen!P$3,IF($D22="HWN",Anforderungen!P$5,IF($D22="LG",Anforderungen!P$7,IF($D22="Dekon",Anforderungen!P$9,""))))</f>
+        <v/>
+      </c>
+      <c r="S22" t="str">
+        <f>IF($D22="HW",Anforderungen!Q$3,IF($D22="HWN",Anforderungen!Q$5,IF($D22="LG",Anforderungen!Q$7,IF($D22="Dekon",Anforderungen!Q$9,""))))</f>
+        <v/>
+      </c>
+      <c r="T22" t="str">
+        <f>IF($D22="HW",Anforderungen!R$3,IF($D22="HWN",Anforderungen!R$5,IF($D22="LG",Anforderungen!R$7,IF($D22="Dekon",Anforderungen!R$9,""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23" s="11"/>
+      <c r="D23" s="2"/>
+      <c r="E23" t="str">
+        <f>IF($D23="HW",Anforderungen!C$3,IF($D23="HWN",Anforderungen!C$5,IF($D23="LG",Anforderungen!C$7,IF($D23="Dekon",Anforderungen!C$9,""))))</f>
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <f>IF($D23="HW",Anforderungen!D$3,IF($D23="HWN",Anforderungen!D$5,IF($D23="LG",Anforderungen!D$7,IF($D23="Dekon",Anforderungen!D$9,""))))</f>
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <f>IF($D23="HW",Anforderungen!E$3,IF($D23="HWN",Anforderungen!E$5,IF($D23="LG",Anforderungen!E$7,IF($D23="Dekon",Anforderungen!E$9,""))))</f>
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <f>IF($D23="HW",Anforderungen!F$3,IF($D23="HWN",Anforderungen!F$5,IF($D23="LG",Anforderungen!F$7,IF($D23="Dekon",Anforderungen!F$9,""))))</f>
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <f>IF($D23="HW",Anforderungen!G$3,IF($D23="HWN",Anforderungen!#REF!,IF($D23="LG",Anforderungen!G$7,IF($D23="Dekon",Anforderungen!G$9,""))))</f>
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <f>IF($D23="HW",Anforderungen!H$3,IF($D23="HWN",Anforderungen!G$5,IF($D23="LG",Anforderungen!H$7,IF($D23="Dekon",Anforderungen!H$9,""))))</f>
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <f>IF($D23="HW",Anforderungen!I$3,IF($D23="HWN",Anforderungen!H$5,IF($D23="LG",Anforderungen!I$7,IF($D23="Dekon",Anforderungen!I$9,""))))</f>
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <f>IF($D23="HW",Anforderungen!J$3,IF($D23="HWN",Anforderungen!I$5,IF($D23="LG",Anforderungen!J$7,IF($D23="Dekon",Anforderungen!J$9,""))))</f>
+        <v/>
+      </c>
+      <c r="M23" t="str">
+        <f>IF($D23="HW",Anforderungen!K$3,IF($D23="HWN",Anforderungen!J$5,IF($D23="LG",Anforderungen!K$7,IF($D23="Dekon",Anforderungen!K$9,""))))</f>
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <f>IF($D23="HW",Anforderungen!L$3,IF($D23="HWN",Anforderungen!K$5,IF($D23="LG",Anforderungen!L$7,IF($D23="Dekon",Anforderungen!L$9,""))))</f>
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <f>IF($D23="HW",Anforderungen!M$3,IF($D23="HWN",Anforderungen!L$5,IF($D23="LG",Anforderungen!M$7,IF($D23="Dekon",Anforderungen!M$9,""))))</f>
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <f>IF($D23="HW",Anforderungen!N$3,IF($D23="HWN",Anforderungen!N$5,IF($D23="LG",Anforderungen!N$7,IF($D23="Dekon",Anforderungen!N$9,""))))</f>
+        <v/>
+      </c>
+      <c r="Q23" t="str">
+        <f>IF($D23="HW",Anforderungen!O$3,IF($D23="HWN",Anforderungen!O$5,IF($D23="LG",Anforderungen!O$7,IF($D23="Dekon",Anforderungen!O$9,""))))</f>
+        <v/>
+      </c>
+      <c r="R23" t="str">
+        <f>IF($D23="HW",Anforderungen!P$3,IF($D23="HWN",Anforderungen!P$5,IF($D23="LG",Anforderungen!P$7,IF($D23="Dekon",Anforderungen!P$9,""))))</f>
+        <v/>
+      </c>
+      <c r="S23" t="str">
+        <f>IF($D23="HW",Anforderungen!Q$3,IF($D23="HWN",Anforderungen!Q$5,IF($D23="LG",Anforderungen!Q$7,IF($D23="Dekon",Anforderungen!Q$9,""))))</f>
+        <v/>
+      </c>
+      <c r="T23" t="str">
+        <f>IF($D23="HW",Anforderungen!R$3,IF($D23="HWN",Anforderungen!R$5,IF($D23="LG",Anforderungen!R$7,IF($D23="Dekon",Anforderungen!R$9,""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24" s="11"/>
+      <c r="D24" s="2"/>
+      <c r="E24" t="str">
+        <f>IF($D24="HW",Anforderungen!C$3,IF($D24="HWN",Anforderungen!C$5,IF($D24="LG",Anforderungen!C$7,IF($D24="Dekon",Anforderungen!C$9,""))))</f>
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <f>IF($D24="HW",Anforderungen!D$3,IF($D24="HWN",Anforderungen!D$5,IF($D24="LG",Anforderungen!D$7,IF($D24="Dekon",Anforderungen!D$9,""))))</f>
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <f>IF($D24="HW",Anforderungen!E$3,IF($D24="HWN",Anforderungen!E$5,IF($D24="LG",Anforderungen!E$7,IF($D24="Dekon",Anforderungen!E$9,""))))</f>
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <f>IF($D24="HW",Anforderungen!F$3,IF($D24="HWN",Anforderungen!F$5,IF($D24="LG",Anforderungen!F$7,IF($D24="Dekon",Anforderungen!F$9,""))))</f>
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <f>IF($D24="HW",Anforderungen!G$3,IF($D24="HWN",Anforderungen!#REF!,IF($D24="LG",Anforderungen!G$7,IF($D24="Dekon",Anforderungen!G$9,""))))</f>
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <f>IF($D24="HW",Anforderungen!H$3,IF($D24="HWN",Anforderungen!G$5,IF($D24="LG",Anforderungen!H$7,IF($D24="Dekon",Anforderungen!H$9,""))))</f>
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <f>IF($D24="HW",Anforderungen!I$3,IF($D24="HWN",Anforderungen!H$5,IF($D24="LG",Anforderungen!I$7,IF($D24="Dekon",Anforderungen!I$9,""))))</f>
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <f>IF($D24="HW",Anforderungen!J$3,IF($D24="HWN",Anforderungen!I$5,IF($D24="LG",Anforderungen!J$7,IF($D24="Dekon",Anforderungen!J$9,""))))</f>
+        <v/>
+      </c>
+      <c r="M24" t="str">
+        <f>IF($D24="HW",Anforderungen!K$3,IF($D24="HWN",Anforderungen!J$5,IF($D24="LG",Anforderungen!K$7,IF($D24="Dekon",Anforderungen!K$9,""))))</f>
+        <v/>
+      </c>
+      <c r="N24" t="str">
+        <f>IF($D24="HW",Anforderungen!L$3,IF($D24="HWN",Anforderungen!K$5,IF($D24="LG",Anforderungen!L$7,IF($D24="Dekon",Anforderungen!L$9,""))))</f>
+        <v/>
+      </c>
+      <c r="O24" t="str">
+        <f>IF($D24="HW",Anforderungen!M$3,IF($D24="HWN",Anforderungen!L$5,IF($D24="LG",Anforderungen!M$7,IF($D24="Dekon",Anforderungen!M$9,""))))</f>
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <f>IF($D24="HW",Anforderungen!N$3,IF($D24="HWN",Anforderungen!N$5,IF($D24="LG",Anforderungen!N$7,IF($D24="Dekon",Anforderungen!N$9,""))))</f>
+        <v/>
+      </c>
+      <c r="Q24" t="str">
+        <f>IF($D24="HW",Anforderungen!O$3,IF($D24="HWN",Anforderungen!O$5,IF($D24="LG",Anforderungen!O$7,IF($D24="Dekon",Anforderungen!O$9,""))))</f>
+        <v/>
+      </c>
+      <c r="R24" t="str">
+        <f>IF($D24="HW",Anforderungen!P$3,IF($D24="HWN",Anforderungen!P$5,IF($D24="LG",Anforderungen!P$7,IF($D24="Dekon",Anforderungen!P$9,""))))</f>
+        <v/>
+      </c>
+      <c r="S24" t="str">
+        <f>IF($D24="HW",Anforderungen!Q$3,IF($D24="HWN",Anforderungen!Q$5,IF($D24="LG",Anforderungen!Q$7,IF($D24="Dekon",Anforderungen!Q$9,""))))</f>
+        <v/>
+      </c>
+      <c r="T24" t="str">
+        <f>IF($D24="HW",Anforderungen!R$3,IF($D24="HWN",Anforderungen!R$5,IF($D24="LG",Anforderungen!R$7,IF($D24="Dekon",Anforderungen!R$9,""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="C25" s="11"/>
+      <c r="D25" s="2"/>
+      <c r="E25" t="str">
+        <f>IF($D25="HW",Anforderungen!C$3,IF($D25="HWN",Anforderungen!C$5,IF($D25="LG",Anforderungen!C$7,IF($D25="Dekon",Anforderungen!C$9,""))))</f>
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <f>IF($D25="HW",Anforderungen!D$3,IF($D25="HWN",Anforderungen!D$5,IF($D25="LG",Anforderungen!D$7,IF($D25="Dekon",Anforderungen!D$9,""))))</f>
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <f>IF($D25="HW",Anforderungen!E$3,IF($D25="HWN",Anforderungen!E$5,IF($D25="LG",Anforderungen!E$7,IF($D25="Dekon",Anforderungen!E$9,""))))</f>
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <f>IF($D25="HW",Anforderungen!F$3,IF($D25="HWN",Anforderungen!F$5,IF($D25="LG",Anforderungen!F$7,IF($D25="Dekon",Anforderungen!F$9,""))))</f>
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <f>IF($D25="HW",Anforderungen!G$3,IF($D25="HWN",Anforderungen!#REF!,IF($D25="LG",Anforderungen!G$7,IF($D25="Dekon",Anforderungen!G$9,""))))</f>
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <f>IF($D25="HW",Anforderungen!H$3,IF($D25="HWN",Anforderungen!G$5,IF($D25="LG",Anforderungen!H$7,IF($D25="Dekon",Anforderungen!H$9,""))))</f>
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <f>IF($D25="HW",Anforderungen!I$3,IF($D25="HWN",Anforderungen!H$5,IF($D25="LG",Anforderungen!I$7,IF($D25="Dekon",Anforderungen!I$9,""))))</f>
+        <v/>
+      </c>
+      <c r="L25" t="str">
+        <f>IF($D25="HW",Anforderungen!J$3,IF($D25="HWN",Anforderungen!I$5,IF($D25="LG",Anforderungen!J$7,IF($D25="Dekon",Anforderungen!J$9,""))))</f>
+        <v/>
+      </c>
+      <c r="M25" t="str">
+        <f>IF($D25="HW",Anforderungen!K$3,IF($D25="HWN",Anforderungen!J$5,IF($D25="LG",Anforderungen!K$7,IF($D25="Dekon",Anforderungen!K$9,""))))</f>
+        <v/>
+      </c>
+      <c r="N25" t="str">
+        <f>IF($D25="HW",Anforderungen!L$3,IF($D25="HWN",Anforderungen!K$5,IF($D25="LG",Anforderungen!L$7,IF($D25="Dekon",Anforderungen!L$9,""))))</f>
+        <v/>
+      </c>
+      <c r="O25" t="str">
+        <f>IF($D25="HW",Anforderungen!M$3,IF($D25="HWN",Anforderungen!L$5,IF($D25="LG",Anforderungen!M$7,IF($D25="Dekon",Anforderungen!M$9,""))))</f>
+        <v/>
+      </c>
+      <c r="P25" t="str">
+        <f>IF($D25="HW",Anforderungen!N$3,IF($D25="HWN",Anforderungen!N$5,IF($D25="LG",Anforderungen!N$7,IF($D25="Dekon",Anforderungen!N$9,""))))</f>
+        <v/>
+      </c>
+      <c r="Q25" t="str">
+        <f>IF($D25="HW",Anforderungen!O$3,IF($D25="HWN",Anforderungen!O$5,IF($D25="LG",Anforderungen!O$7,IF($D25="Dekon",Anforderungen!O$9,""))))</f>
+        <v/>
+      </c>
+      <c r="R25" t="str">
+        <f>IF($D25="HW",Anforderungen!P$3,IF($D25="HWN",Anforderungen!P$5,IF($D25="LG",Anforderungen!P$7,IF($D25="Dekon",Anforderungen!P$9,""))))</f>
+        <v/>
+      </c>
+      <c r="S25" t="str">
+        <f>IF($D25="HW",Anforderungen!Q$3,IF($D25="HWN",Anforderungen!Q$5,IF($D25="LG",Anforderungen!Q$7,IF($D25="Dekon",Anforderungen!Q$9,""))))</f>
+        <v/>
+      </c>
+      <c r="T25" t="str">
+        <f>IF($D25="HW",Anforderungen!R$3,IF($D25="HWN",Anforderungen!R$5,IF($D25="LG",Anforderungen!R$7,IF($D25="Dekon",Anforderungen!R$9,""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="C26" s="11"/>
+      <c r="D26" s="2"/>
+      <c r="E26" t="str">
+        <f>IF($D26="HW",Anforderungen!C$3,IF($D26="HWN",Anforderungen!C$5,IF($D26="LG",Anforderungen!C$7,IF($D26="Dekon",Anforderungen!C$9,""))))</f>
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <f>IF($D26="HW",Anforderungen!D$3,IF($D26="HWN",Anforderungen!D$5,IF($D26="LG",Anforderungen!D$7,IF($D26="Dekon",Anforderungen!D$9,""))))</f>
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <f>IF($D26="HW",Anforderungen!E$3,IF($D26="HWN",Anforderungen!E$5,IF($D26="LG",Anforderungen!E$7,IF($D26="Dekon",Anforderungen!E$9,""))))</f>
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <f>IF($D26="HW",Anforderungen!F$3,IF($D26="HWN",Anforderungen!F$5,IF($D26="LG",Anforderungen!F$7,IF($D26="Dekon",Anforderungen!F$9,""))))</f>
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <f>IF($D26="HW",Anforderungen!G$3,IF($D26="HWN",Anforderungen!#REF!,IF($D26="LG",Anforderungen!G$7,IF($D26="Dekon",Anforderungen!G$9,""))))</f>
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <f>IF($D26="HW",Anforderungen!H$3,IF($D26="HWN",Anforderungen!G$5,IF($D26="LG",Anforderungen!H$7,IF($D26="Dekon",Anforderungen!H$9,""))))</f>
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <f>IF($D26="HW",Anforderungen!I$3,IF($D26="HWN",Anforderungen!H$5,IF($D26="LG",Anforderungen!I$7,IF($D26="Dekon",Anforderungen!I$9,""))))</f>
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <f>IF($D26="HW",Anforderungen!J$3,IF($D26="HWN",Anforderungen!I$5,IF($D26="LG",Anforderungen!J$7,IF($D26="Dekon",Anforderungen!J$9,""))))</f>
+        <v/>
+      </c>
+      <c r="M26" t="str">
+        <f>IF($D26="HW",Anforderungen!K$3,IF($D26="HWN",Anforderungen!J$5,IF($D26="LG",Anforderungen!K$7,IF($D26="Dekon",Anforderungen!K$9,""))))</f>
+        <v/>
+      </c>
+      <c r="N26" t="str">
+        <f>IF($D26="HW",Anforderungen!L$3,IF($D26="HWN",Anforderungen!K$5,IF($D26="LG",Anforderungen!L$7,IF($D26="Dekon",Anforderungen!L$9,""))))</f>
+        <v/>
+      </c>
+      <c r="O26" t="str">
+        <f>IF($D26="HW",Anforderungen!M$3,IF($D26="HWN",Anforderungen!L$5,IF($D26="LG",Anforderungen!M$7,IF($D26="Dekon",Anforderungen!M$9,""))))</f>
+        <v/>
+      </c>
+      <c r="P26" t="str">
+        <f>IF($D26="HW",Anforderungen!N$3,IF($D26="HWN",Anforderungen!N$5,IF($D26="LG",Anforderungen!N$7,IF($D26="Dekon",Anforderungen!N$9,""))))</f>
+        <v/>
+      </c>
+      <c r="Q26" t="str">
+        <f>IF($D26="HW",Anforderungen!O$3,IF($D26="HWN",Anforderungen!O$5,IF($D26="LG",Anforderungen!O$7,IF($D26="Dekon",Anforderungen!O$9,""))))</f>
+        <v/>
+      </c>
+      <c r="R26" t="str">
+        <f>IF($D26="HW",Anforderungen!P$3,IF($D26="HWN",Anforderungen!P$5,IF($D26="LG",Anforderungen!P$7,IF($D26="Dekon",Anforderungen!P$9,""))))</f>
+        <v/>
+      </c>
+      <c r="S26" t="str">
+        <f>IF($D26="HW",Anforderungen!Q$3,IF($D26="HWN",Anforderungen!Q$5,IF($D26="LG",Anforderungen!Q$7,IF($D26="Dekon",Anforderungen!Q$9,""))))</f>
+        <v/>
+      </c>
+      <c r="T26" t="str">
+        <f>IF($D26="HW",Anforderungen!R$3,IF($D26="HWN",Anforderungen!R$5,IF($D26="LG",Anforderungen!R$7,IF($D26="Dekon",Anforderungen!R$9,""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="C27" s="11"/>
+      <c r="D27" s="2"/>
+      <c r="E27" t="str">
+        <f>IF($D27="HW",Anforderungen!C$3,IF($D27="HWN",Anforderungen!C$5,IF($D27="LG",Anforderungen!C$7,IF($D27="Dekon",Anforderungen!C$9,""))))</f>
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <f>IF($D27="HW",Anforderungen!D$3,IF($D27="HWN",Anforderungen!D$5,IF($D27="LG",Anforderungen!D$7,IF($D27="Dekon",Anforderungen!D$9,""))))</f>
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <f>IF($D27="HW",Anforderungen!E$3,IF($D27="HWN",Anforderungen!E$5,IF($D27="LG",Anforderungen!E$7,IF($D27="Dekon",Anforderungen!E$9,""))))</f>
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <f>IF($D27="HW",Anforderungen!F$3,IF($D27="HWN",Anforderungen!F$5,IF($D27="LG",Anforderungen!F$7,IF($D27="Dekon",Anforderungen!F$9,""))))</f>
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <f>IF($D27="HW",Anforderungen!G$3,IF($D27="HWN",Anforderungen!#REF!,IF($D27="LG",Anforderungen!G$7,IF($D27="Dekon",Anforderungen!G$9,""))))</f>
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <f>IF($D27="HW",Anforderungen!H$3,IF($D27="HWN",Anforderungen!G$5,IF($D27="LG",Anforderungen!H$7,IF($D27="Dekon",Anforderungen!H$9,""))))</f>
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <f>IF($D27="HW",Anforderungen!I$3,IF($D27="HWN",Anforderungen!H$5,IF($D27="LG",Anforderungen!I$7,IF($D27="Dekon",Anforderungen!I$9,""))))</f>
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <f>IF($D27="HW",Anforderungen!J$3,IF($D27="HWN",Anforderungen!I$5,IF($D27="LG",Anforderungen!J$7,IF($D27="Dekon",Anforderungen!J$9,""))))</f>
+        <v/>
+      </c>
+      <c r="M27" t="str">
+        <f>IF($D27="HW",Anforderungen!K$3,IF($D27="HWN",Anforderungen!J$5,IF($D27="LG",Anforderungen!K$7,IF($D27="Dekon",Anforderungen!K$9,""))))</f>
+        <v/>
+      </c>
+      <c r="N27" t="str">
+        <f>IF($D27="HW",Anforderungen!L$3,IF($D27="HWN",Anforderungen!K$5,IF($D27="LG",Anforderungen!L$7,IF($D27="Dekon",Anforderungen!L$9,""))))</f>
+        <v/>
+      </c>
+      <c r="O27" t="str">
+        <f>IF($D27="HW",Anforderungen!M$3,IF($D27="HWN",Anforderungen!L$5,IF($D27="LG",Anforderungen!M$7,IF($D27="Dekon",Anforderungen!M$9,""))))</f>
+        <v/>
+      </c>
+      <c r="P27" t="str">
+        <f>IF($D27="HW",Anforderungen!N$3,IF($D27="HWN",Anforderungen!N$5,IF($D27="LG",Anforderungen!N$7,IF($D27="Dekon",Anforderungen!N$9,""))))</f>
+        <v/>
+      </c>
+      <c r="Q27" t="str">
+        <f>IF($D27="HW",Anforderungen!O$3,IF($D27="HWN",Anforderungen!O$5,IF($D27="LG",Anforderungen!O$7,IF($D27="Dekon",Anforderungen!O$9,""))))</f>
+        <v/>
+      </c>
+      <c r="R27" t="str">
+        <f>IF($D27="HW",Anforderungen!P$3,IF($D27="HWN",Anforderungen!P$5,IF($D27="LG",Anforderungen!P$7,IF($D27="Dekon",Anforderungen!P$9,""))))</f>
+        <v/>
+      </c>
+      <c r="S27" t="str">
+        <f>IF($D27="HW",Anforderungen!Q$3,IF($D27="HWN",Anforderungen!Q$5,IF($D27="LG",Anforderungen!Q$7,IF($D27="Dekon",Anforderungen!Q$9,""))))</f>
+        <v/>
+      </c>
+      <c r="T27" t="str">
+        <f>IF($D27="HW",Anforderungen!R$3,IF($D27="HWN",Anforderungen!R$5,IF($D27="LG",Anforderungen!R$7,IF($D27="Dekon",Anforderungen!R$9,""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="C28" s="11"/>
+      <c r="D28" s="2"/>
+      <c r="E28" t="str">
+        <f>IF($D28="HW",Anforderungen!C$3,IF($D28="HWN",Anforderungen!C$5,IF($D28="LG",Anforderungen!C$7,IF($D28="Dekon",Anforderungen!C$9,""))))</f>
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <f>IF($D28="HW",Anforderungen!D$3,IF($D28="HWN",Anforderungen!D$5,IF($D28="LG",Anforderungen!D$7,IF($D28="Dekon",Anforderungen!D$9,""))))</f>
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <f>IF($D28="HW",Anforderungen!E$3,IF($D28="HWN",Anforderungen!E$5,IF($D28="LG",Anforderungen!E$7,IF($D28="Dekon",Anforderungen!E$9,""))))</f>
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <f>IF($D28="HW",Anforderungen!F$3,IF($D28="HWN",Anforderungen!F$5,IF($D28="LG",Anforderungen!F$7,IF($D28="Dekon",Anforderungen!F$9,""))))</f>
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <f>IF($D28="HW",Anforderungen!G$3,IF($D28="HWN",Anforderungen!#REF!,IF($D28="LG",Anforderungen!G$7,IF($D28="Dekon",Anforderungen!G$9,""))))</f>
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <f>IF($D28="HW",Anforderungen!H$3,IF($D28="HWN",Anforderungen!G$5,IF($D28="LG",Anforderungen!H$7,IF($D28="Dekon",Anforderungen!H$9,""))))</f>
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <f>IF($D28="HW",Anforderungen!I$3,IF($D28="HWN",Anforderungen!H$5,IF($D28="LG",Anforderungen!I$7,IF($D28="Dekon",Anforderungen!I$9,""))))</f>
+        <v/>
+      </c>
+      <c r="L28" t="str">
+        <f>IF($D28="HW",Anforderungen!J$3,IF($D28="HWN",Anforderungen!I$5,IF($D28="LG",Anforderungen!J$7,IF($D28="Dekon",Anforderungen!J$9,""))))</f>
+        <v/>
+      </c>
+      <c r="M28" t="str">
+        <f>IF($D28="HW",Anforderungen!K$3,IF($D28="HWN",Anforderungen!J$5,IF($D28="LG",Anforderungen!K$7,IF($D28="Dekon",Anforderungen!K$9,""))))</f>
+        <v/>
+      </c>
+      <c r="N28" t="str">
+        <f>IF($D28="HW",Anforderungen!L$3,IF($D28="HWN",Anforderungen!K$5,IF($D28="LG",Anforderungen!L$7,IF($D28="Dekon",Anforderungen!L$9,""))))</f>
+        <v/>
+      </c>
+      <c r="O28" t="str">
+        <f>IF($D28="HW",Anforderungen!M$3,IF($D28="HWN",Anforderungen!L$5,IF($D28="LG",Anforderungen!M$7,IF($D28="Dekon",Anforderungen!M$9,""))))</f>
+        <v/>
+      </c>
+      <c r="P28" t="str">
+        <f>IF($D28="HW",Anforderungen!N$3,IF($D28="HWN",Anforderungen!N$5,IF($D28="LG",Anforderungen!N$7,IF($D28="Dekon",Anforderungen!N$9,""))))</f>
+        <v/>
+      </c>
+      <c r="Q28" t="str">
+        <f>IF($D28="HW",Anforderungen!O$3,IF($D28="HWN",Anforderungen!O$5,IF($D28="LG",Anforderungen!O$7,IF($D28="Dekon",Anforderungen!O$9,""))))</f>
+        <v/>
+      </c>
+      <c r="R28" t="str">
+        <f>IF($D28="HW",Anforderungen!P$3,IF($D28="HWN",Anforderungen!P$5,IF($D28="LG",Anforderungen!P$7,IF($D28="Dekon",Anforderungen!P$9,""))))</f>
+        <v/>
+      </c>
+      <c r="S28" t="str">
+        <f>IF($D28="HW",Anforderungen!Q$3,IF($D28="HWN",Anforderungen!Q$5,IF($D28="LG",Anforderungen!Q$7,IF($D28="Dekon",Anforderungen!Q$9,""))))</f>
+        <v/>
+      </c>
+      <c r="T28" t="str">
+        <f>IF($D28="HW",Anforderungen!R$3,IF($D28="HWN",Anforderungen!R$5,IF($D28="LG",Anforderungen!R$7,IF($D28="Dekon",Anforderungen!R$9,""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="C29" s="11"/>
+      <c r="D29" s="2"/>
+      <c r="E29" t="str">
+        <f>IF($D29="HW",Anforderungen!C$3,IF($D29="HWN",Anforderungen!C$5,IF($D29="LG",Anforderungen!C$7,IF($D29="Dekon",Anforderungen!C$9,""))))</f>
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <f>IF($D29="HW",Anforderungen!D$3,IF($D29="HWN",Anforderungen!D$5,IF($D29="LG",Anforderungen!D$7,IF($D29="Dekon",Anforderungen!D$9,""))))</f>
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <f>IF($D29="HW",Anforderungen!E$3,IF($D29="HWN",Anforderungen!E$5,IF($D29="LG",Anforderungen!E$7,IF($D29="Dekon",Anforderungen!E$9,""))))</f>
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <f>IF($D29="HW",Anforderungen!F$3,IF($D29="HWN",Anforderungen!F$5,IF($D29="LG",Anforderungen!F$7,IF($D29="Dekon",Anforderungen!F$9,""))))</f>
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <f>IF($D29="HW",Anforderungen!G$3,IF($D29="HWN",Anforderungen!#REF!,IF($D29="LG",Anforderungen!G$7,IF($D29="Dekon",Anforderungen!G$9,""))))</f>
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <f>IF($D29="HW",Anforderungen!H$3,IF($D29="HWN",Anforderungen!G$5,IF($D29="LG",Anforderungen!H$7,IF($D29="Dekon",Anforderungen!H$9,""))))</f>
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <f>IF($D29="HW",Anforderungen!I$3,IF($D29="HWN",Anforderungen!H$5,IF($D29="LG",Anforderungen!I$7,IF($D29="Dekon",Anforderungen!I$9,""))))</f>
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <f>IF($D29="HW",Anforderungen!J$3,IF($D29="HWN",Anforderungen!I$5,IF($D29="LG",Anforderungen!J$7,IF($D29="Dekon",Anforderungen!J$9,""))))</f>
+        <v/>
+      </c>
+      <c r="M29" t="str">
+        <f>IF($D29="HW",Anforderungen!K$3,IF($D29="HWN",Anforderungen!J$5,IF($D29="LG",Anforderungen!K$7,IF($D29="Dekon",Anforderungen!K$9,""))))</f>
+        <v/>
+      </c>
+      <c r="N29" t="str">
+        <f>IF($D29="HW",Anforderungen!L$3,IF($D29="HWN",Anforderungen!K$5,IF($D29="LG",Anforderungen!L$7,IF($D29="Dekon",Anforderungen!L$9,""))))</f>
+        <v/>
+      </c>
+      <c r="O29" t="str">
+        <f>IF($D29="HW",Anforderungen!M$3,IF($D29="HWN",Anforderungen!L$5,IF($D29="LG",Anforderungen!M$7,IF($D29="Dekon",Anforderungen!M$9,""))))</f>
+        <v/>
+      </c>
+      <c r="P29" t="str">
+        <f>IF($D29="HW",Anforderungen!N$3,IF($D29="HWN",Anforderungen!N$5,IF($D29="LG",Anforderungen!N$7,IF($D29="Dekon",Anforderungen!N$9,""))))</f>
+        <v/>
+      </c>
+      <c r="Q29" t="str">
+        <f>IF($D29="HW",Anforderungen!O$3,IF($D29="HWN",Anforderungen!O$5,IF($D29="LG",Anforderungen!O$7,IF($D29="Dekon",Anforderungen!O$9,""))))</f>
+        <v/>
+      </c>
+      <c r="R29" t="str">
+        <f>IF($D29="HW",Anforderungen!P$3,IF($D29="HWN",Anforderungen!P$5,IF($D29="LG",Anforderungen!P$7,IF($D29="Dekon",Anforderungen!P$9,""))))</f>
+        <v/>
+      </c>
+      <c r="S29" t="str">
+        <f>IF($D29="HW",Anforderungen!Q$3,IF($D29="HWN",Anforderungen!Q$5,IF($D29="LG",Anforderungen!Q$7,IF($D29="Dekon",Anforderungen!Q$9,""))))</f>
+        <v/>
+      </c>
+      <c r="T29" t="str">
+        <f>IF($D29="HW",Anforderungen!R$3,IF($D29="HWN",Anforderungen!R$5,IF($D29="LG",Anforderungen!R$7,IF($D29="Dekon",Anforderungen!R$9,""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="C30" s="11"/>
+      <c r="D30" s="2"/>
+      <c r="E30" t="str">
+        <f>IF($D30="HW",Anforderungen!C$3,IF($D30="HWN",Anforderungen!C$5,IF($D30="LG",Anforderungen!C$7,IF($D30="Dekon",Anforderungen!C$9,""))))</f>
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <f>IF($D30="HW",Anforderungen!D$3,IF($D30="HWN",Anforderungen!D$5,IF($D30="LG",Anforderungen!D$7,IF($D30="Dekon",Anforderungen!D$9,""))))</f>
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <f>IF($D30="HW",Anforderungen!E$3,IF($D30="HWN",Anforderungen!E$5,IF($D30="LG",Anforderungen!E$7,IF($D30="Dekon",Anforderungen!E$9,""))))</f>
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <f>IF($D30="HW",Anforderungen!F$3,IF($D30="HWN",Anforderungen!F$5,IF($D30="LG",Anforderungen!F$7,IF($D30="Dekon",Anforderungen!F$9,""))))</f>
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <f>IF($D30="HW",Anforderungen!G$3,IF($D30="HWN",Anforderungen!#REF!,IF($D30="LG",Anforderungen!G$7,IF($D30="Dekon",Anforderungen!G$9,""))))</f>
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <f>IF($D30="HW",Anforderungen!H$3,IF($D30="HWN",Anforderungen!G$5,IF($D30="LG",Anforderungen!H$7,IF($D30="Dekon",Anforderungen!H$9,""))))</f>
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <f>IF($D30="HW",Anforderungen!I$3,IF($D30="HWN",Anforderungen!H$5,IF($D30="LG",Anforderungen!I$7,IF($D30="Dekon",Anforderungen!I$9,""))))</f>
+        <v/>
+      </c>
+      <c r="L30" t="str">
+        <f>IF($D30="HW",Anforderungen!J$3,IF($D30="HWN",Anforderungen!I$5,IF($D30="LG",Anforderungen!J$7,IF($D30="Dekon",Anforderungen!J$9,""))))</f>
+        <v/>
+      </c>
+      <c r="M30" t="str">
+        <f>IF($D30="HW",Anforderungen!K$3,IF($D30="HWN",Anforderungen!J$5,IF($D30="LG",Anforderungen!K$7,IF($D30="Dekon",Anforderungen!K$9,""))))</f>
+        <v/>
+      </c>
+      <c r="N30" t="str">
+        <f>IF($D30="HW",Anforderungen!L$3,IF($D30="HWN",Anforderungen!K$5,IF($D30="LG",Anforderungen!L$7,IF($D30="Dekon",Anforderungen!L$9,""))))</f>
+        <v/>
+      </c>
+      <c r="O30" t="str">
+        <f>IF($D30="HW",Anforderungen!M$3,IF($D30="HWN",Anforderungen!L$5,IF($D30="LG",Anforderungen!M$7,IF($D30="Dekon",Anforderungen!M$9,""))))</f>
+        <v/>
+      </c>
+      <c r="P30" t="str">
+        <f>IF($D30="HW",Anforderungen!N$3,IF($D30="HWN",Anforderungen!N$5,IF($D30="LG",Anforderungen!N$7,IF($D30="Dekon",Anforderungen!N$9,""))))</f>
+        <v/>
+      </c>
+      <c r="Q30" t="str">
+        <f>IF($D30="HW",Anforderungen!O$3,IF($D30="HWN",Anforderungen!O$5,IF($D30="LG",Anforderungen!O$7,IF($D30="Dekon",Anforderungen!O$9,""))))</f>
+        <v/>
+      </c>
+      <c r="R30" t="str">
+        <f>IF($D30="HW",Anforderungen!P$3,IF($D30="HWN",Anforderungen!P$5,IF($D30="LG",Anforderungen!P$7,IF($D30="Dekon",Anforderungen!P$9,""))))</f>
+        <v/>
+      </c>
+      <c r="S30" t="str">
+        <f>IF($D30="HW",Anforderungen!Q$3,IF($D30="HWN",Anforderungen!Q$5,IF($D30="LG",Anforderungen!Q$7,IF($D30="Dekon",Anforderungen!Q$9,""))))</f>
+        <v/>
+      </c>
+      <c r="T30" t="str">
+        <f>IF($D30="HW",Anforderungen!R$3,IF($D30="HWN",Anforderungen!R$5,IF($D30="LG",Anforderungen!R$7,IF($D30="Dekon",Anforderungen!R$9,""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="C31" s="11"/>
+      <c r="D31" s="2"/>
+      <c r="E31" t="str">
+        <f>IF($D31="HW",Anforderungen!C$3,IF($D31="HWN",Anforderungen!C$5,IF($D31="LG",Anforderungen!C$7,IF($D31="Dekon",Anforderungen!C$9,""))))</f>
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <f>IF($D31="HW",Anforderungen!D$3,IF($D31="HWN",Anforderungen!D$5,IF($D31="LG",Anforderungen!D$7,IF($D31="Dekon",Anforderungen!D$9,""))))</f>
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <f>IF($D31="HW",Anforderungen!E$3,IF($D31="HWN",Anforderungen!E$5,IF($D31="LG",Anforderungen!E$7,IF($D31="Dekon",Anforderungen!E$9,""))))</f>
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <f>IF($D31="HW",Anforderungen!F$3,IF($D31="HWN",Anforderungen!F$5,IF($D31="LG",Anforderungen!F$7,IF($D31="Dekon",Anforderungen!F$9,""))))</f>
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <f>IF($D31="HW",Anforderungen!G$3,IF($D31="HWN",Anforderungen!#REF!,IF($D31="LG",Anforderungen!G$7,IF($D31="Dekon",Anforderungen!G$9,""))))</f>
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <f>IF($D31="HW",Anforderungen!H$3,IF($D31="HWN",Anforderungen!G$5,IF($D31="LG",Anforderungen!H$7,IF($D31="Dekon",Anforderungen!H$9,""))))</f>
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <f>IF($D31="HW",Anforderungen!I$3,IF($D31="HWN",Anforderungen!H$5,IF($D31="LG",Anforderungen!I$7,IF($D31="Dekon",Anforderungen!I$9,""))))</f>
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <f>IF($D31="HW",Anforderungen!J$3,IF($D31="HWN",Anforderungen!I$5,IF($D31="LG",Anforderungen!J$7,IF($D31="Dekon",Anforderungen!J$9,""))))</f>
+        <v/>
+      </c>
+      <c r="M31" t="str">
+        <f>IF($D31="HW",Anforderungen!K$3,IF($D31="HWN",Anforderungen!J$5,IF($D31="LG",Anforderungen!K$7,IF($D31="Dekon",Anforderungen!K$9,""))))</f>
+        <v/>
+      </c>
+      <c r="N31" t="str">
+        <f>IF($D31="HW",Anforderungen!L$3,IF($D31="HWN",Anforderungen!K$5,IF($D31="LG",Anforderungen!L$7,IF($D31="Dekon",Anforderungen!L$9,""))))</f>
+        <v/>
+      </c>
+      <c r="O31" t="str">
+        <f>IF($D31="HW",Anforderungen!M$3,IF($D31="HWN",Anforderungen!L$5,IF($D31="LG",Anforderungen!M$7,IF($D31="Dekon",Anforderungen!M$9,""))))</f>
+        <v/>
+      </c>
+      <c r="P31" t="str">
+        <f>IF($D31="HW",Anforderungen!N$3,IF($D31="HWN",Anforderungen!N$5,IF($D31="LG",Anforderungen!N$7,IF($D31="Dekon",Anforderungen!N$9,""))))</f>
+        <v/>
+      </c>
+      <c r="Q31" t="str">
+        <f>IF($D31="HW",Anforderungen!O$3,IF($D31="HWN",Anforderungen!O$5,IF($D31="LG",Anforderungen!O$7,IF($D31="Dekon",Anforderungen!O$9,""))))</f>
+        <v/>
+      </c>
+      <c r="R31" t="str">
+        <f>IF($D31="HW",Anforderungen!P$3,IF($D31="HWN",Anforderungen!P$5,IF($D31="LG",Anforderungen!P$7,IF($D31="Dekon",Anforderungen!P$9,""))))</f>
+        <v/>
+      </c>
+      <c r="S31" t="str">
+        <f>IF($D31="HW",Anforderungen!Q$3,IF($D31="HWN",Anforderungen!Q$5,IF($D31="LG",Anforderungen!Q$7,IF($D31="Dekon",Anforderungen!Q$9,""))))</f>
+        <v/>
+      </c>
+      <c r="T31" t="str">
+        <f>IF($D31="HW",Anforderungen!R$3,IF($D31="HWN",Anforderungen!R$5,IF($D31="LG",Anforderungen!R$7,IF($D31="Dekon",Anforderungen!R$9,""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>28</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="2"/>
+      <c r="E32" t="str">
+        <f>IF($D32="HW",Anforderungen!C$3,IF($D32="HWN",Anforderungen!C$5,IF($D32="LG",Anforderungen!C$7,IF($D32="Dekon",Anforderungen!C$9,""))))</f>
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <f>IF($D32="HW",Anforderungen!D$3,IF($D32="HWN",Anforderungen!D$5,IF($D32="LG",Anforderungen!D$7,IF($D32="Dekon",Anforderungen!D$9,""))))</f>
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <f>IF($D32="HW",Anforderungen!E$3,IF($D32="HWN",Anforderungen!E$5,IF($D32="LG",Anforderungen!E$7,IF($D32="Dekon",Anforderungen!E$9,""))))</f>
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <f>IF($D32="HW",Anforderungen!F$3,IF($D32="HWN",Anforderungen!F$5,IF($D32="LG",Anforderungen!F$7,IF($D32="Dekon",Anforderungen!F$9,""))))</f>
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <f>IF($D32="HW",Anforderungen!G$3,IF($D32="HWN",Anforderungen!#REF!,IF($D32="LG",Anforderungen!G$7,IF($D32="Dekon",Anforderungen!G$9,""))))</f>
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <f>IF($D32="HW",Anforderungen!H$3,IF($D32="HWN",Anforderungen!G$5,IF($D32="LG",Anforderungen!H$7,IF($D32="Dekon",Anforderungen!H$9,""))))</f>
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <f>IF($D32="HW",Anforderungen!I$3,IF($D32="HWN",Anforderungen!H$5,IF($D32="LG",Anforderungen!I$7,IF($D32="Dekon",Anforderungen!I$9,""))))</f>
+        <v/>
+      </c>
+      <c r="L32" t="str">
+        <f>IF($D32="HW",Anforderungen!J$3,IF($D32="HWN",Anforderungen!I$5,IF($D32="LG",Anforderungen!J$7,IF($D32="Dekon",Anforderungen!J$9,""))))</f>
+        <v/>
+      </c>
+      <c r="M32" t="str">
+        <f>IF($D32="HW",Anforderungen!K$3,IF($D32="HWN",Anforderungen!J$5,IF($D32="LG",Anforderungen!K$7,IF($D32="Dekon",Anforderungen!K$9,""))))</f>
+        <v/>
+      </c>
+      <c r="N32" t="str">
+        <f>IF($D32="HW",Anforderungen!L$3,IF($D32="HWN",Anforderungen!K$5,IF($D32="LG",Anforderungen!L$7,IF($D32="Dekon",Anforderungen!L$9,""))))</f>
+        <v/>
+      </c>
+      <c r="O32" t="str">
+        <f>IF($D32="HW",Anforderungen!M$3,IF($D32="HWN",Anforderungen!L$5,IF($D32="LG",Anforderungen!M$7,IF($D32="Dekon",Anforderungen!M$9,""))))</f>
+        <v/>
+      </c>
+      <c r="P32" t="str">
+        <f>IF($D32="HW",Anforderungen!N$3,IF($D32="HWN",Anforderungen!N$5,IF($D32="LG",Anforderungen!N$7,IF($D32="Dekon",Anforderungen!N$9,""))))</f>
+        <v/>
+      </c>
+      <c r="Q32" t="str">
+        <f>IF($D32="HW",Anforderungen!O$3,IF($D32="HWN",Anforderungen!O$5,IF($D32="LG",Anforderungen!O$7,IF($D32="Dekon",Anforderungen!O$9,""))))</f>
+        <v/>
+      </c>
+      <c r="R32" t="str">
+        <f>IF($D32="HW",Anforderungen!P$3,IF($D32="HWN",Anforderungen!P$5,IF($D32="LG",Anforderungen!P$7,IF($D32="Dekon",Anforderungen!P$9,""))))</f>
+        <v/>
+      </c>
+      <c r="S32" t="str">
+        <f>IF($D32="HW",Anforderungen!Q$3,IF($D32="HWN",Anforderungen!Q$5,IF($D32="LG",Anforderungen!Q$7,IF($D32="Dekon",Anforderungen!Q$9,""))))</f>
+        <v/>
+      </c>
+      <c r="T32" t="str">
+        <f>IF($D32="HW",Anforderungen!R$3,IF($D32="HWN",Anforderungen!R$5,IF($D32="LG",Anforderungen!R$7,IF($D32="Dekon",Anforderungen!R$9,""))))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
